--- a/code/h2_data_right.xlsx
+++ b/code/h2_data_right.xlsx
@@ -13,7 +13,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -121,46 +331,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>74</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>75</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>76</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>9</v>
+        <v>79</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>11</v>
+        <v>81</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>12</v>
+        <v>82</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_right.xlsx
+++ b/code/h2_data_right.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -313,17 +355,17 @@
   <dimension ref="A1:N53"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="13.7109375" customWidth="true"/>
-    <col min="3" max="3" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="3" max="3" width="14.42578125" customWidth="true"/>
     <col min="4" max="4" width="14.42578125" customWidth="true"/>
-    <col min="5" max="5" width="14.42578125" customWidth="true"/>
-    <col min="6" max="6" width="15.42578125" customWidth="true"/>
-    <col min="7" max="7" width="16.42578125" customWidth="true"/>
-    <col min="8" max="8" width="15.42578125" customWidth="true"/>
-    <col min="9" max="9" width="14.42578125" customWidth="true"/>
-    <col min="10" max="10" width="13.7109375" customWidth="true"/>
-    <col min="11" max="11" width="14.7109375" customWidth="true"/>
+    <col min="5" max="5" width="16.42578125" customWidth="true"/>
+    <col min="6" max="6" width="14.7109375" customWidth="true"/>
+    <col min="7" max="7" width="15.42578125" customWidth="true"/>
+    <col min="8" max="8" width="14.42578125" customWidth="true"/>
+    <col min="9" max="9" width="16.42578125" customWidth="true"/>
+    <col min="10" max="10" width="14.42578125" customWidth="true"/>
+    <col min="11" max="11" width="14.42578125" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
     <col min="14" max="14" width="14.42578125" customWidth="true"/>
@@ -331,2290 +373,2290 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>72</v>
+        <v>86</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>74</v>
+        <v>88</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>82</v>
+        <v>96</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>83</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.27730648744999997</v>
+        <v>0.35236831209000002</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.31346168646</v>
+        <v>0.020971230329999993</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.63963866324999996</v>
+        <v>-0.20259292910999999</v>
       </c>
       <c r="D2" s="0">
-        <v>0.40259672468000007</v>
+        <v>0.232421210445</v>
       </c>
       <c r="E2" s="0">
-        <v>0.45600222308499999</v>
+        <v>0.53005618403999999</v>
       </c>
       <c r="F2" s="0">
-        <v>-0.67242880599999999</v>
+        <v>0.14213989827000001</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.78578805043500011</v>
+        <v>-0.18180497038499999</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.503296043059</v>
+        <v>-0.19624049368399998</v>
       </c>
       <c r="I2" s="0">
-        <v>-0.76556726502950001</v>
+        <v>-0.33533148237349997</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.84016802769999999</v>
+        <v>-0.14344035365000007</v>
       </c>
       <c r="K2" s="0">
-        <v>-0.14228944456999998</v>
+        <v>0.28624279545000003</v>
       </c>
       <c r="L2" s="0">
-        <v>-1.12332055205</v>
+        <v>0.102820592145</v>
       </c>
       <c r="M2" s="0">
-        <v>-0.48893397149999995</v>
+        <v>0.11768635030000001</v>
       </c>
       <c r="N2" s="0">
-        <v>-1.3230268133500001</v>
+        <v>0.15064260970000004</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.34538786075</v>
+        <v>-0.23389143466999995</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.30439186815000002</v>
+        <v>-0.16639326934999998</v>
       </c>
       <c r="C3" s="0">
-        <v>0.063799758200000056</v>
+        <v>0.33006911370000008</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.24112775489999999</v>
+        <v>-0.16809070394</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.35693917675000003</v>
+        <v>-0.17558617531666676</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.77694029254999997</v>
+        <v>-0.40471880721666664</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.34482458520000003</v>
+        <v>-0.24827867708333334</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.19372414262000001</v>
+        <v>-0.046029694563333348</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.98796576995000007</v>
+        <v>-0.67836378396666674</v>
       </c>
       <c r="J3" s="0">
-        <v>0.19891646234999993</v>
+        <v>0.50547868524999995</v>
       </c>
       <c r="K3" s="0">
-        <v>0.13684393854999999</v>
+        <v>0.45599815782666675</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.5349555319999999</v>
+        <v>-0.21128039642666657</v>
       </c>
       <c r="M3" s="0">
-        <v>-1.0714577441499999</v>
+        <v>-0.8920076451233333</v>
       </c>
       <c r="N3" s="0">
-        <v>0.24173566199999996</v>
+        <v>0.037125883500000012</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.30450749073833333</v>
+        <v>-0.16109976916500002</v>
       </c>
       <c r="B4" s="0">
-        <v>-1.1925587927833332</v>
+        <v>-1.0994254579666667</v>
       </c>
       <c r="C4" s="0">
-        <v>-1.7713950458066665</v>
+        <v>-1.5938632239400001</v>
       </c>
       <c r="D4" s="0">
-        <v>-1.1171887945833332</v>
+        <v>-0.72989614393333335</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.8079165093666667</v>
+        <v>-0.59842245261666671</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.70814698981666668</v>
+        <v>-0.62715960176666652</v>
       </c>
       <c r="G4" s="0">
-        <v>-1.0125965440766667</v>
+        <v>-1.0401571789993334</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.68952743263666672</v>
+        <v>-0.60108222268666667</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.21003356183600003</v>
+        <v>-0.19579646872666667</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.11026958277</v>
+        <v>-1.4469894162366668</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.2125784183499999</v>
+        <v>-1.3940702373666669</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.69018078721666676</v>
+        <v>-0.7011195165166666</v>
       </c>
       <c r="M4" s="0">
-        <v>0.19334014210999995</v>
+        <v>-0.024620321391666644</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.87532575875000007</v>
+        <v>-0.98280009595000006</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.46989861245999998</v>
+        <v>-0.50180481406666655</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.12988065334666665</v>
+        <v>-0.21734430426499995</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.10706038424333332</v>
+        <v>-0.37813477010166663</v>
       </c>
       <c r="D5" s="0">
-        <v>-0.33931674136666667</v>
+        <v>0.16438331305333334</v>
       </c>
       <c r="E5" s="0">
-        <v>0.13538359274333334</v>
+        <v>0.27701419745166667</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.19800626913333336</v>
+        <v>-0.16051442707333335</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.16098381395666667</v>
+        <v>-0.44369376918333336</v>
       </c>
       <c r="H5" s="0">
-        <v>0.71186850861666673</v>
+        <v>0.20139192588100005</v>
       </c>
       <c r="I5" s="0">
-        <v>0.21014843556000001</v>
+        <v>0.68735655904166659</v>
       </c>
       <c r="J5" s="0">
-        <v>-1.5361239635999999</v>
+        <v>-0.95406956465000015</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.14462978193333331</v>
+        <v>-0.23300890621666667</v>
       </c>
       <c r="L5" s="0">
-        <v>0.52794012863333339</v>
+        <v>0.86120068063333333</v>
       </c>
       <c r="M5" s="0">
-        <v>1.4049791550999999</v>
+        <v>0.68376020083333333</v>
       </c>
       <c r="N5" s="0">
-        <v>1.1094651357233334</v>
+        <v>1.5128827652333334</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>0.054288548964999975</v>
+        <v>-0.20092898903333334</v>
       </c>
       <c r="B6" s="0">
-        <v>0.11347168191666668</v>
+        <v>-0.097643229433333312</v>
       </c>
       <c r="C6" s="0">
-        <v>0.62411236634666667</v>
+        <v>0.22543320698333336</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.29687171549666669</v>
+        <v>-0.79523115202999994</v>
       </c>
       <c r="E6" s="0">
-        <v>-0.66594951116666679</v>
+        <v>-1.1658759994833332</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.065239833570000016</v>
+        <v>-0.55997373344000012</v>
       </c>
       <c r="G6" s="0">
-        <v>0.22831680812333333</v>
+        <v>-0.14125577199333328</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.21934706111833335</v>
+        <v>-0.17205723768333336</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.38229333379666669</v>
+        <v>-0.49362800006333329</v>
       </c>
       <c r="J6" s="0">
-        <v>-0.67043992885000003</v>
+        <v>-1.1146640557</v>
       </c>
       <c r="K6" s="0">
-        <v>0.3108045576666667</v>
+        <v>-0.42784924833333332</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.051946834716666751</v>
+        <v>-0.4379495802366668</v>
       </c>
       <c r="M6" s="0">
-        <v>-0.50238571451833336</v>
+        <v>-1.0452510391166667</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.26176589623333335</v>
+        <v>-0.82635863256666664</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.73688097027366672</v>
+        <v>-0.56948788171699993</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.57692160646666668</v>
+        <v>-0.29791004654999997</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.54323000086666662</v>
+        <v>-0.40603762576166669</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.099734058893333311</v>
+        <v>-0.085667385933333284</v>
       </c>
       <c r="E7" s="0">
-        <v>0.1045750229333333</v>
+        <v>0.091428651685000001</v>
       </c>
       <c r="F7" s="0">
-        <v>0.19890185570000002</v>
+        <v>0.24496283873333335</v>
       </c>
       <c r="G7" s="0">
-        <v>0.30292936811666665</v>
+        <v>0.35996867887333328</v>
       </c>
       <c r="H7" s="0">
-        <v>0.0075863247500000119</v>
+        <v>0.13166470980166664</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.59519228562166671</v>
+        <v>-0.30172342601166663</v>
       </c>
       <c r="J7" s="0">
-        <v>-0.18653951696666665</v>
+        <v>0.43080721331666666</v>
       </c>
       <c r="K7" s="0">
-        <v>0.2130156791333333</v>
+        <v>0.37799045188333336</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.15702277573333329</v>
+        <v>-0.22762107664999998</v>
       </c>
       <c r="M7" s="0">
-        <v>-0.15009599388333333</v>
+        <v>-0.20995336521666672</v>
       </c>
       <c r="N7" s="0">
-        <v>-0.036848522250000015</v>
+        <v>0.21623145600000004</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.37075874859999997</v>
+        <v>0.12142651494066664</v>
       </c>
       <c r="B8" s="0">
-        <v>0.72205622753333332</v>
+        <v>0.050255813033333291</v>
       </c>
       <c r="C8" s="0">
-        <v>0.77443583551666684</v>
+        <v>0.15457574982000005</v>
       </c>
       <c r="D8" s="0">
-        <v>0.085275158714999966</v>
+        <v>-0.11461340010000007</v>
       </c>
       <c r="E8" s="0">
-        <v>0.092741620116666701</v>
+        <v>-0.052988184699999996</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.2600495918316667</v>
+        <v>-0.2150473690833333</v>
       </c>
       <c r="G8" s="0">
-        <v>0.045771465266666644</v>
+        <v>0.17575408291666667</v>
       </c>
       <c r="H8" s="0">
-        <v>0.15964076864666663</v>
+        <v>0.18429527773000001</v>
       </c>
       <c r="I8" s="0">
-        <v>0.14176066235333334</v>
+        <v>-0.040415543763333339</v>
       </c>
       <c r="J8" s="0">
-        <v>-0.16897685770166659</v>
+        <v>0.5943944914499999</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.44902734503333341</v>
+        <v>-0.73423406300500005</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.18923403789999993</v>
+        <v>-0.2905041414366667</v>
       </c>
       <c r="M8" s="0">
-        <v>-0.13181761581666651</v>
+        <v>-0.18264348441666667</v>
       </c>
       <c r="N8" s="0">
-        <v>0.74750920523333331</v>
+        <v>-0.036043506208333409</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.70916162763333324</v>
+        <v>0.55587307116666662</v>
       </c>
       <c r="B9" s="0">
-        <v>0.36996062021483334</v>
+        <v>0.29960293845666669</v>
       </c>
       <c r="C9" s="0">
-        <v>0.78846813619</v>
+        <v>0.50117653503333337</v>
       </c>
       <c r="D9" s="0">
-        <v>1.2355444655400001</v>
+        <v>0.56281188958333339</v>
       </c>
       <c r="E9" s="0">
-        <v>0.90475134615666664</v>
+        <v>0.80124795485000011</v>
       </c>
       <c r="F9" s="0">
-        <v>0.72443563570000002</v>
+        <v>0.49247670339333333</v>
       </c>
       <c r="G9" s="0">
-        <v>1.2175975983</v>
+        <v>0.52918984401666669</v>
       </c>
       <c r="H9" s="0">
-        <v>0.76857257567333337</v>
+        <v>0.12779481164666665</v>
       </c>
       <c r="I9" s="0">
-        <v>0.7917771097666666</v>
+        <v>0.65735816343333331</v>
       </c>
       <c r="J9" s="0">
-        <v>2.8549563794000004</v>
+        <v>1.40033774165</v>
       </c>
       <c r="K9" s="0">
-        <v>-0.16610664281666665</v>
+        <v>0.050281944348333385</v>
       </c>
       <c r="L9" s="0">
-        <v>0.4850720814333333</v>
+        <v>-0.029940666966666668</v>
       </c>
       <c r="M9" s="0">
-        <v>0.016945017156666659</v>
+        <v>-0.51257497457666668</v>
       </c>
       <c r="N9" s="0">
-        <v>0.50320932622333336</v>
+        <v>-0.020844607740000007</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.19835016578333334</v>
+        <v>-0.17503976494666668</v>
       </c>
       <c r="B10" s="0">
-        <v>0.22737766923333341</v>
+        <v>-0.12358935942983323</v>
       </c>
       <c r="C10" s="0">
-        <v>0.44276388011666667</v>
+        <v>-0.21751755101666664</v>
       </c>
       <c r="D10" s="0">
-        <v>1.0928608565666666</v>
+        <v>0.85382445965000009</v>
       </c>
       <c r="E10" s="0">
-        <v>1.4310215263833332</v>
+        <v>0.92256633128333332</v>
       </c>
       <c r="F10" s="0">
-        <v>0.25162621456000006</v>
+        <v>-0.17423149803333335</v>
       </c>
       <c r="G10" s="0">
-        <v>0.12432556356166663</v>
+        <v>-0.15376959909666665</v>
       </c>
       <c r="H10" s="0">
-        <v>0.19937164758000001</v>
+        <v>0.36417195758333337</v>
       </c>
       <c r="I10" s="0">
-        <v>0.62062084139999996</v>
+        <v>0.2982516080833334</v>
       </c>
       <c r="J10" s="0">
-        <v>0.85902748580666666</v>
+        <v>0.26658381226166661</v>
       </c>
       <c r="K10" s="0">
-        <v>1.4821890264166666</v>
+        <v>0.46853841539999996</v>
       </c>
       <c r="L10" s="0">
-        <v>0.96510337316999995</v>
+        <v>1.0538382573533334</v>
       </c>
       <c r="M10" s="0">
-        <v>0.14918249141333334</v>
+        <v>0.12065366942500001</v>
       </c>
       <c r="N10" s="0">
-        <v>1.0222883717166666</v>
+        <v>0.28234394299999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.17023089413333331</v>
+        <v>0.029562754886666709</v>
       </c>
       <c r="B11" s="0">
-        <v>0.40594217296499996</v>
+        <v>0.64913236775000005</v>
       </c>
       <c r="C11" s="0">
-        <v>0.69113486398333324</v>
+        <v>1.1318510223333331</v>
       </c>
       <c r="D11" s="0">
-        <v>0.53063953678999998</v>
+        <v>0.71002619696666658</v>
       </c>
       <c r="E11" s="0">
-        <v>0.53794701820000002</v>
+        <v>0.55046879051666664</v>
       </c>
       <c r="F11" s="0">
-        <v>0.29293073769333333</v>
+        <v>0.47614340827666651</v>
       </c>
       <c r="G11" s="0">
-        <v>0.041416280799999983</v>
+        <v>0.056858446200000023</v>
       </c>
       <c r="H11" s="0">
-        <v>-0.11204780298333333</v>
+        <v>0.11492967441666661</v>
       </c>
       <c r="I11" s="0">
-        <v>0.15706840842999997</v>
+        <v>0.38079756213333338</v>
       </c>
       <c r="J11" s="0">
-        <v>0.094213020668333328</v>
+        <v>0.4562384850966667</v>
       </c>
       <c r="K11" s="0">
-        <v>0.82944507188333338</v>
+        <v>1.1779366876999999</v>
       </c>
       <c r="L11" s="0">
-        <v>0.76475319360000005</v>
+        <v>1.1077479683833333</v>
       </c>
       <c r="M11" s="0">
-        <v>0.78215150513333342</v>
+        <v>0.78268303496666669</v>
       </c>
       <c r="N11" s="0">
-        <v>1.1379271276949998</v>
+        <v>1.1556158771733331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>0.12721069266666668</v>
+        <v>-0.106118606485</v>
       </c>
       <c r="B12" s="0">
-        <v>0.35598548339666664</v>
+        <v>0.074382936323333287</v>
       </c>
       <c r="C12" s="0">
-        <v>0.53840031401666666</v>
+        <v>0.23605638948333324</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.16369375396333335</v>
+        <v>-0.20193550420666667</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.34461146876666671</v>
+        <v>-0.17183214213333331</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.013231368156666659</v>
+        <v>-0.060526250529999999</v>
       </c>
       <c r="G12" s="0">
-        <v>0.44951482563333345</v>
+        <v>0.017559166886666644</v>
       </c>
       <c r="H12" s="0">
-        <v>0.6435368914966666</v>
+        <v>0.48582113282666667</v>
       </c>
       <c r="I12" s="0">
-        <v>0.65037528879333328</v>
+        <v>0.46508112501333332</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.10429784440000001</v>
+        <v>-0.33954987241666662</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.045305319169999969</v>
+        <v>-0.31957305192999996</v>
       </c>
       <c r="L12" s="0">
-        <v>0.17062435836000001</v>
+        <v>0.28971126994166674</v>
       </c>
       <c r="M12" s="0">
-        <v>0.045293777534999996</v>
+        <v>0.0029773181566666862</v>
       </c>
       <c r="N12" s="0">
-        <v>-0.068702383583333249</v>
+        <v>0.25196634350000002</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.11163256266999999</v>
+        <v>0.34868360438666668</v>
       </c>
       <c r="B13" s="0">
-        <v>0.23475885269999999</v>
+        <v>0.15897969013333332</v>
       </c>
       <c r="C13" s="0">
-        <v>0.039188309748333372</v>
+        <v>-0.052361621631666661</v>
       </c>
       <c r="D13" s="0">
-        <v>-0.14271847550708336</v>
+        <v>0.07357296215833331</v>
       </c>
       <c r="E13" s="0">
-        <v>0.14199048882766674</v>
+        <v>0.24603046858000008</v>
       </c>
       <c r="F13" s="0">
-        <v>-0.014603551166666645</v>
+        <v>0.68710480108333338</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.37386881673333333</v>
+        <v>-0.00097144945499999871</v>
       </c>
       <c r="H13" s="0">
-        <v>-0.48789409653333338</v>
+        <v>-0.0536447829666667</v>
       </c>
       <c r="I13" s="0">
-        <v>0.31074120519999993</v>
+        <v>0.41600675868333331</v>
       </c>
       <c r="J13" s="0">
-        <v>-1.3484908246999998</v>
+        <v>-0.99353513516666669</v>
       </c>
       <c r="K13" s="0">
-        <v>0.20574975331666667</v>
+        <v>-0.025922693488333315</v>
       </c>
       <c r="L13" s="0">
-        <v>0.033109678600000046</v>
+        <v>0.39694843931666668</v>
       </c>
       <c r="M13" s="0">
-        <v>-0.46484784061666662</v>
+        <v>0.17788388779333336</v>
       </c>
       <c r="N13" s="0">
-        <v>0.32961022076666668</v>
+        <v>0.52057417005000006</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.046459699554999997</v>
+        <v>-0.2195892263</v>
       </c>
       <c r="B14" s="0">
-        <v>1.1179519388333334</v>
+        <v>0.92189636008333331</v>
       </c>
       <c r="C14" s="0">
-        <v>0.86237381694999993</v>
+        <v>0.58271228103333328</v>
       </c>
       <c r="D14" s="0">
-        <v>0.37197665848333333</v>
+        <v>0.45495288810000001</v>
       </c>
       <c r="E14" s="0">
-        <v>0.43635248366666668</v>
+        <v>0.45646121363333325</v>
       </c>
       <c r="F14" s="0">
-        <v>0.79324644931666655</v>
+        <v>0.21024056039166664</v>
       </c>
       <c r="G14" s="0">
-        <v>0.29237670206666672</v>
+        <v>-0.24682856996666666</v>
       </c>
       <c r="H14" s="0">
-        <v>0.27806091181833337</v>
+        <v>-0.054994039983333298</v>
       </c>
       <c r="I14" s="0">
-        <v>0.4275281677833333</v>
+        <v>0.43320707103333334</v>
       </c>
       <c r="J14" s="0">
-        <v>0.46817728498666666</v>
+        <v>0.37381841551999995</v>
       </c>
       <c r="K14" s="0">
-        <v>0.0076341867833332744</v>
+        <v>0.11594347685833331</v>
       </c>
       <c r="L14" s="0">
-        <v>0.39146107871666663</v>
+        <v>0.18946015635000002</v>
       </c>
       <c r="M14" s="0">
-        <v>0.79399031078333326</v>
+        <v>0.38910158150000007</v>
       </c>
       <c r="N14" s="0">
-        <v>0.45300592035333331</v>
+        <v>0.66006046148333331</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.28540509108616663</v>
+        <v>-0.27842089733333331</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.23847328656333333</v>
+        <v>-0.019354289300000049</v>
       </c>
       <c r="C15" s="0">
-        <v>0.42172980885333344</v>
+        <v>0.25162362064333332</v>
       </c>
       <c r="D15" s="0">
-        <v>0.73545668613333337</v>
+        <v>0.60993080885000006</v>
       </c>
       <c r="E15" s="0">
-        <v>0.80031693375333335</v>
+        <v>0.8816933566166667</v>
       </c>
       <c r="F15" s="0">
-        <v>0.55623965326666669</v>
+        <v>0.48080521525000008</v>
       </c>
       <c r="G15" s="0">
-        <v>0.60034543350333336</v>
+        <v>0.62747383412999991</v>
       </c>
       <c r="H15" s="0">
-        <v>-0.048364865450000002</v>
+        <v>0.20044461423666665</v>
       </c>
       <c r="I15" s="0">
-        <v>0.35767273856333331</v>
+        <v>0.47714475137833334</v>
       </c>
       <c r="J15" s="0">
-        <v>0.075634293268333347</v>
+        <v>0.39132720451166669</v>
       </c>
       <c r="K15" s="0">
-        <v>0.31522642533333334</v>
+        <v>0.47266492879999994</v>
       </c>
       <c r="L15" s="0">
-        <v>0.33729907190000002</v>
+        <v>0.39192744373833338</v>
       </c>
       <c r="M15" s="0">
-        <v>0.77852426798333341</v>
+        <v>1.2482755264500001</v>
       </c>
       <c r="N15" s="0">
-        <v>-0.031412506389999983</v>
+        <v>0.84416032607666658</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.088961602239999993</v>
+        <v>0.012390193049999998</v>
       </c>
       <c r="B16" s="0">
-        <v>0.36026401293333343</v>
+        <v>0.17932394213333336</v>
       </c>
       <c r="C16" s="0">
-        <v>0.20895838050000001</v>
+        <v>0.072250404394000017</v>
       </c>
       <c r="D16" s="0">
-        <v>0.18138018656666666</v>
+        <v>0.12355949646666667</v>
       </c>
       <c r="E16" s="0">
-        <v>0.30333383205000003</v>
+        <v>0.34430721505</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.15791726073333334</v>
+        <v>-0.066230699493333323</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.062071054233333339</v>
+        <v>-0.13859200409333333</v>
       </c>
       <c r="H16" s="0">
-        <v>0.12289904799333332</v>
+        <v>-0.042470351186666665</v>
       </c>
       <c r="I16" s="0">
-        <v>0.48825194713666664</v>
+        <v>0.26099940907666663</v>
       </c>
       <c r="J16" s="0">
-        <v>0.50274794861666672</v>
+        <v>0.074319077916666698</v>
       </c>
       <c r="K16" s="0">
-        <v>0.014300685269999974</v>
+        <v>0.14182557497000001</v>
       </c>
       <c r="L16" s="0">
-        <v>-0.57107857134999995</v>
+        <v>-0.29120371285000002</v>
       </c>
       <c r="M16" s="0">
-        <v>0.076011203499999999</v>
+        <v>-0.085979856199999968</v>
       </c>
       <c r="N16" s="0">
-        <v>0.57081771763333333</v>
+        <v>0.41997575808333343</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.54770950252333328</v>
+        <v>-0.33814176928166662</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.93751480261666664</v>
+        <v>-0.76233538369999998</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.72940434410666666</v>
+        <v>-0.64729151847999999</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.74863686254999995</v>
+        <v>-0.71046264509333334</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.45570659979333333</v>
+        <v>-0.034360633943333385</v>
       </c>
       <c r="F17" s="0">
-        <v>-0.043596941426666647</v>
+        <v>0.0078377320149999596</v>
       </c>
       <c r="G17" s="0">
-        <v>0.20651398634999996</v>
+        <v>-0.049078289383333334</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.12907323701666668</v>
+        <v>-0.44513090007166667</v>
       </c>
       <c r="I17" s="0">
-        <v>-1.10809707695</v>
+        <v>-0.84607767426666669</v>
       </c>
       <c r="J17" s="0">
-        <v>-0.15965828452333333</v>
+        <v>-1.0452703563733334</v>
       </c>
       <c r="K17" s="0">
-        <v>-1.3701634766333335</v>
+        <v>-0.82217722917833336</v>
       </c>
       <c r="L17" s="0">
-        <v>-0.86826835759000009</v>
+        <v>-0.62115433726666669</v>
       </c>
       <c r="M17" s="0">
-        <v>-0.73192426563333346</v>
+        <v>-0.023683921113333367</v>
       </c>
       <c r="N17" s="0">
-        <v>-1.5514000038000002</v>
+        <v>-0.94579602267166663</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.77848363294</v>
+        <v>-0.53127305487333332</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.61654241416666666</v>
+        <v>-0.34601840206666667</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.72044165759000001</v>
+        <v>-0.19892686352666664</v>
       </c>
       <c r="D18" s="0">
-        <v>0.024479337446666673</v>
+        <v>0.017764692200000001</v>
       </c>
       <c r="E18" s="0">
-        <v>0.39927678726666666</v>
+        <v>-0.00076273556666664466</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.50878799389999996</v>
+        <v>-0.23171589287666669</v>
       </c>
       <c r="G18" s="0">
-        <v>-1.0152611613966667</v>
+        <v>-0.31897059829666669</v>
       </c>
       <c r="H18" s="0">
-        <v>-0.85493325395133335</v>
+        <v>-0.196226759178</v>
       </c>
       <c r="I18" s="0">
-        <v>0.026717299559999991</v>
+        <v>0.25212822765666665</v>
       </c>
       <c r="J18" s="0">
-        <v>-0.86345115621899993</v>
+        <v>0.1712148476</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.062196795766666646</v>
+        <v>-0.081237909100000033</v>
       </c>
       <c r="L18" s="0">
-        <v>-0.91081731313333325</v>
+        <v>-0.80800481059999996</v>
       </c>
       <c r="M18" s="0">
-        <v>-0.33050232289999992</v>
+        <v>-0.059540157459999965</v>
       </c>
       <c r="N18" s="0">
-        <v>-0.67190754930000007</v>
+        <v>-0.010993964766666753</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.27602455612666665</v>
+        <v>0.48494966309333332</v>
       </c>
       <c r="B19" s="0">
-        <v>0.038451063633333338</v>
+        <v>0.30821896710000002</v>
       </c>
       <c r="C19" s="0">
-        <v>-0.12053219686666669</v>
+        <v>0.28364465244166664</v>
       </c>
       <c r="D19" s="0">
-        <v>0.76435667283333331</v>
+        <v>0.27308358993333331</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.070510019683333341</v>
+        <v>-0.2963027455833333</v>
       </c>
       <c r="F19" s="0">
-        <v>0.064352306930000006</v>
+        <v>-0.1074686862</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.17839595916666662</v>
+        <v>-0.34714472016666664</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.0074513016666666876</v>
+        <v>-0.058240188200000001</v>
       </c>
       <c r="I19" s="0">
-        <v>0.18628212303333333</v>
+        <v>0.1400451828</v>
       </c>
       <c r="J19" s="0">
-        <v>-0.56817182063333327</v>
+        <v>-1.4030090667333333</v>
       </c>
       <c r="K19" s="0">
-        <v>-0.19370679086666664</v>
+        <v>-0.033881469499999928</v>
       </c>
       <c r="L19" s="0">
-        <v>0.49853127993333329</v>
+        <v>0.49729247933333331</v>
       </c>
       <c r="M19" s="0">
-        <v>0.174030237</v>
+        <v>0.0086625266066666581</v>
       </c>
       <c r="N19" s="0">
-        <v>-0.52732650113333335</v>
+        <v>-0.37382421300999996</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.40806126998333336</v>
+        <v>0.36094543725000006</v>
       </c>
       <c r="B20" s="0">
-        <v>0.13945815360666669</v>
+        <v>0.15717663000333332</v>
       </c>
       <c r="C20" s="0">
-        <v>0.73272980329833337</v>
+        <v>0.60523825051666669</v>
       </c>
       <c r="D20" s="0">
-        <v>0.13851854416666665</v>
+        <v>0.094615370283333333</v>
       </c>
       <c r="E20" s="0">
-        <v>0.16122886861666666</v>
+        <v>0.19652312925000001</v>
       </c>
       <c r="F20" s="0">
-        <v>0.53612072112999998</v>
+        <v>0.4567673695331666</v>
       </c>
       <c r="G20" s="0">
-        <v>0.44186920856333334</v>
+        <v>0.35778709821333332</v>
       </c>
       <c r="H20" s="0">
-        <v>0.28465666098999998</v>
+        <v>0.3664898394233333</v>
       </c>
       <c r="I20" s="0">
-        <v>0.50955928686666663</v>
+        <v>0.36804915488333334</v>
       </c>
       <c r="J20" s="0">
-        <v>1.3427084068999999</v>
+        <v>1.1065162787</v>
       </c>
       <c r="K20" s="0">
-        <v>0.42034068050999995</v>
+        <v>0.0060858627900000073</v>
       </c>
       <c r="L20" s="0">
-        <v>0.62126110803333323</v>
+        <v>0.019843577786666622</v>
       </c>
       <c r="M20" s="0">
-        <v>0.81165816038333327</v>
+        <v>0.11350544130000007</v>
       </c>
       <c r="N20" s="0">
-        <v>1.3894084701349998</v>
+        <v>0.33288436114999997</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.063852865380000026</v>
+        <v>0.18276481450166662</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.41698751439999998</v>
+        <v>-0.17016955983333329</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.58439044214999991</v>
+        <v>-0.030278989333333339</v>
       </c>
       <c r="D21" s="0">
-        <v>0.068534644769646658</v>
+        <v>0.38066568786833332</v>
       </c>
       <c r="E21" s="0">
-        <v>0.18721849839999999</v>
+        <v>0.26390181944999996</v>
       </c>
       <c r="F21" s="0">
-        <v>-0.38678869855666664</v>
+        <v>0.29453212348166669</v>
       </c>
       <c r="G21" s="0">
-        <v>-1.0599118530533334</v>
+        <v>-0.28441228472000002</v>
       </c>
       <c r="H21" s="0">
-        <v>-0.4338357332083333</v>
+        <v>-0.14932034730666666</v>
       </c>
       <c r="I21" s="0">
-        <v>-0.43703612446666668</v>
+        <v>0.038550098049999981</v>
       </c>
       <c r="J21" s="0">
-        <v>0.29324218321666673</v>
+        <v>0.39690169111666662</v>
       </c>
       <c r="K21" s="0">
-        <v>-0.63707434938333329</v>
+        <v>-0.037622825633333301</v>
       </c>
       <c r="L21" s="0">
-        <v>-0.25597620676666666</v>
+        <v>0.0036087668366666659</v>
       </c>
       <c r="M21" s="0">
-        <v>-0.28553854743333335</v>
+        <v>-0.064807361893333318</v>
       </c>
       <c r="N21" s="0">
-        <v>0.98795127854999998</v>
+        <v>1.0621365323499998</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.29747909766666664</v>
+        <v>-0.23431890040000003</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.044024517100000021</v>
+        <v>-0.56702771559999998</v>
       </c>
       <c r="C22" s="0">
-        <v>0.38903435711000001</v>
+        <v>-0.034656901289999986</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.34073292823333323</v>
+        <v>-0.48765853983333329</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.29654544683333334</v>
+        <v>-0.39054695540000006</v>
       </c>
       <c r="F22" s="0">
-        <v>-0.087735845606666668</v>
+        <v>0.65243560512999998</v>
       </c>
       <c r="G22" s="0">
-        <v>0.40886096372000003</v>
+        <v>0.70550694188666663</v>
       </c>
       <c r="H22" s="0">
-        <v>0.118567329804</v>
+        <v>0.12451233030000002</v>
       </c>
       <c r="I22" s="0">
-        <v>-0.1124082158</v>
+        <v>0.017482006093333308</v>
       </c>
       <c r="J22" s="0">
-        <v>-0.92256407289999998</v>
+        <v>-0.60863234669999999</v>
       </c>
       <c r="K22" s="0">
-        <v>0.033204814389999948</v>
+        <v>0.66949134589000003</v>
       </c>
       <c r="L22" s="0">
-        <v>0.55685105420000003</v>
+        <v>0.66893596116666676</v>
       </c>
       <c r="M22" s="0">
-        <v>0.044830854206666645</v>
+        <v>0.3369115517266667</v>
       </c>
       <c r="N22" s="0">
-        <v>-0.17253405145999998</v>
+        <v>-0.48944472952333329</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.88076211573500007</v>
+        <v>-0.82167568358499998</v>
       </c>
       <c r="B23" s="0">
-        <v>-0.94211552025</v>
+        <v>-1.1790185580499999</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.35392592077999996</v>
+        <v>-0.95665385851499996</v>
       </c>
       <c r="D23" s="0">
-        <v>-1.0438085702</v>
+        <v>-0.69218879760000007</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.050588419399999945</v>
+        <v>-0.23665160676999994</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.6268222965000001</v>
+        <v>-0.95881496275000011</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.66852238220000004</v>
+        <v>-0.82343012704999996</v>
       </c>
       <c r="H23" s="0">
-        <v>-0.90165053969999998</v>
+        <v>-0.7522178720499999</v>
       </c>
       <c r="I23" s="0">
-        <v>-0.33384162555000002</v>
+        <v>-0.695163325</v>
       </c>
       <c r="J23" s="0">
-        <v>-1.5690512615000001</v>
+        <v>-1.3457881271499998</v>
       </c>
       <c r="K23" s="0">
-        <v>-0.87369231920000012</v>
+        <v>-0.73396608255000007</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.37991961266499996</v>
+        <v>-0.75307726115750007</v>
       </c>
       <c r="M23" s="0">
-        <v>0.18802463484999998</v>
+        <v>-0.89040685050000001</v>
       </c>
       <c r="N23" s="0">
-        <v>-0.53053429655000006</v>
+        <v>-1.2389498343000001</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.39875634945000005</v>
+        <v>0.022918192456666694</v>
       </c>
       <c r="B24" s="0">
-        <v>0.78471351089999997</v>
+        <v>0.71288265309999987</v>
       </c>
       <c r="C24" s="0">
-        <v>0.48472543900000009</v>
+        <v>0.22248443174166671</v>
       </c>
       <c r="D24" s="0">
-        <v>0.18615282556666668</v>
+        <v>-0.077750981866666666</v>
       </c>
       <c r="E24" s="0">
-        <v>0.49383019481666668</v>
+        <v>0.079148218800000031</v>
       </c>
       <c r="F24" s="0">
-        <v>0.28396706683999995</v>
+        <v>-0.27507682217666668</v>
       </c>
       <c r="G24" s="0">
-        <v>-0.0001355361966666746</v>
+        <v>-0.545882134405</v>
       </c>
       <c r="H24" s="0">
-        <v>-0.032804611944999992</v>
+        <v>-0.21673200771666665</v>
       </c>
       <c r="I24" s="0">
-        <v>0.9183937911433333</v>
+        <v>0.83049233878333328</v>
       </c>
       <c r="J24" s="0">
-        <v>-0.18303884275000001</v>
+        <v>-0.65851993881666671</v>
       </c>
       <c r="K24" s="0">
-        <v>0.27608174739999997</v>
+        <v>0.71358041950666662</v>
       </c>
       <c r="L24" s="0">
-        <v>0.5962486377666667</v>
+        <v>0.26956466006666668</v>
       </c>
       <c r="M24" s="0">
-        <v>1.0672305327499998</v>
+        <v>0.35478450846666665</v>
       </c>
       <c r="N24" s="0">
-        <v>0.92566506032999996</v>
+        <v>0.43016587067999995</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.25014691775333331</v>
+        <v>0.10403874091166668</v>
       </c>
       <c r="B25" s="0">
-        <v>0.23641557338333333</v>
+        <v>0.75229340601666661</v>
       </c>
       <c r="C25" s="0">
-        <v>0.22537261789000002</v>
+        <v>0.56129659244999996</v>
       </c>
       <c r="D25" s="0">
-        <v>-0.1883746751</v>
+        <v>0.090299816718000012</v>
       </c>
       <c r="E25" s="0">
-        <v>-0.35080246370666668</v>
+        <v>0.10468311021000001</v>
       </c>
       <c r="F25" s="0">
-        <v>-0.19433254900166666</v>
+        <v>0.0094539322466666853</v>
       </c>
       <c r="G25" s="0">
-        <v>0.11866401756000002</v>
+        <v>0.058767196630000004</v>
       </c>
       <c r="H25" s="0">
-        <v>-0.23143107245166666</v>
+        <v>0.016188074324999996</v>
       </c>
       <c r="I25" s="0">
-        <v>-0.56311092308499999</v>
+        <v>0.010138534850000033</v>
       </c>
       <c r="J25" s="0">
-        <v>-0.50005439478333336</v>
+        <v>0.27642435360000001</v>
       </c>
       <c r="K25" s="0">
-        <v>-0.16869080547666671</v>
+        <v>0.55122618464999995</v>
       </c>
       <c r="L25" s="0">
-        <v>-0.31812247021166662</v>
+        <v>0.34990139819999999</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.71162521847666671</v>
+        <v>-0.055379544326666641</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.67201820456666672</v>
+        <v>-0.051107001128333329</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.34788847634999998</v>
+        <v>-0.258755845333</v>
       </c>
       <c r="B26" s="0">
-        <v>0.024064935869999998</v>
+        <v>-0.26828032200500002</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.46612483982084996</v>
+        <v>-0.48752230862085</v>
       </c>
       <c r="D26" s="0">
-        <v>-0.11136359196000001</v>
+        <v>0.090958977590000004</v>
       </c>
       <c r="E26" s="0">
-        <v>-1.0240336722349999</v>
+        <v>-0.64759124369999999</v>
       </c>
       <c r="F26" s="0">
-        <v>-1.6427769397500001</v>
+        <v>-1.2106119818600001</v>
       </c>
       <c r="G26" s="0">
-        <v>-1.05531269255</v>
+        <v>-1.52012807335</v>
       </c>
       <c r="H26" s="0">
-        <v>-0.88351079092999996</v>
+        <v>-1.1214419840500001</v>
       </c>
       <c r="I26" s="0">
-        <v>-1.6279852207150001</v>
+        <v>-1.66861569775</v>
       </c>
       <c r="J26" s="0">
-        <v>-1.1459235782000001</v>
+        <v>-1.1711633969999999</v>
       </c>
       <c r="K26" s="0">
-        <v>0.38777922000000004</v>
+        <v>0.056982535399999978</v>
       </c>
       <c r="L26" s="0">
-        <v>-1.0509943197</v>
+        <v>-0.78690549605000004</v>
       </c>
       <c r="M26" s="0">
-        <v>-0.43841295829000004</v>
+        <v>-0.84050979168999995</v>
       </c>
       <c r="N26" s="0">
-        <v>-0.40724349993999992</v>
+        <v>-0.58864919380000003</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.23273754099999999</v>
+        <v>0.028561551516666672</v>
       </c>
       <c r="B27" s="0">
-        <v>0.69161636926666659</v>
+        <v>0.37040845998833338</v>
       </c>
       <c r="C27" s="0">
-        <v>0.89480443403333321</v>
+        <v>0.63471406331166658</v>
       </c>
       <c r="D27" s="0">
-        <v>0.43743046279999998</v>
+        <v>0.19722938693166669</v>
       </c>
       <c r="E27" s="0">
-        <v>0.056229634680000029</v>
+        <v>0.18201869995499997</v>
       </c>
       <c r="F27" s="0">
-        <v>0.15154753507000002</v>
+        <v>0.015139549599999982</v>
       </c>
       <c r="G27" s="0">
-        <v>0.043186409510000009</v>
+        <v>-0.38019820057499998</v>
       </c>
       <c r="H27" s="0">
-        <v>0.93858324415333327</v>
+        <v>0.18827243598666671</v>
       </c>
       <c r="I27" s="0">
-        <v>0.28854418682999994</v>
+        <v>0.42556904436333332</v>
       </c>
       <c r="J27" s="0">
-        <v>1.3730796478333334</v>
+        <v>0.52491318166666667</v>
       </c>
       <c r="K27" s="0">
-        <v>0.65413039208000001</v>
+        <v>-0.045758565480000013</v>
       </c>
       <c r="L27" s="0">
-        <v>0.40921679799999999</v>
+        <v>0.20985767229666663</v>
       </c>
       <c r="M27" s="0">
-        <v>1.2247814845333334</v>
+        <v>0.57210080113333328</v>
       </c>
       <c r="N27" s="0">
-        <v>0.18795269300000017</v>
+        <v>1.1873234766833334</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.25418326435666666</v>
+        <v>-0.6192803232966666</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.48776152848999998</v>
+        <v>-0.71682027068166665</v>
       </c>
       <c r="C28" s="0">
-        <v>0.21658269247666664</v>
+        <v>0.11974260220999998</v>
       </c>
       <c r="D28" s="0">
-        <v>0.17925549408833336</v>
+        <v>0.19151322295333328</v>
       </c>
       <c r="E28" s="0">
-        <v>-0.073914144590000008</v>
+        <v>0.10125570464400008</v>
       </c>
       <c r="F28" s="0">
-        <v>0.050071312666666645</v>
+        <v>0.12229106735000003</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.28915801281999992</v>
+        <v>-0.26027601776666659</v>
       </c>
       <c r="H28" s="0">
-        <v>0.057281299609999975</v>
+        <v>0.081791983759999992</v>
       </c>
       <c r="I28" s="0">
-        <v>-0.18329905398499996</v>
+        <v>-0.18960041545166667</v>
       </c>
       <c r="J28" s="0">
-        <v>0.120989554</v>
+        <v>0.60360263016666671</v>
       </c>
       <c r="K28" s="0">
-        <v>-0.21112273498666662</v>
+        <v>-0.43709517331666659</v>
       </c>
       <c r="L28" s="0">
-        <v>-0.87812655349333335</v>
+        <v>-0.81705006426666671</v>
       </c>
       <c r="M28" s="0">
-        <v>-0.79191888092299989</v>
+        <v>-0.61657062670666674</v>
       </c>
       <c r="N28" s="0">
-        <v>-0.57387409881666662</v>
+        <v>-0.62781687721666668</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>1.7333891528666667</v>
+        <v>1.0882719215333334</v>
       </c>
       <c r="B29" s="0">
-        <v>1.5378827268833335</v>
+        <v>1.2758633520666667</v>
       </c>
       <c r="C29" s="0">
-        <v>0.77413902381166666</v>
+        <v>0.89957141331666668</v>
       </c>
       <c r="D29" s="0">
-        <v>0.044929860970000013</v>
+        <v>0.14738608859999999</v>
       </c>
       <c r="E29" s="0">
-        <v>0.3437915136166666</v>
+        <v>0.43538160265666664</v>
       </c>
       <c r="F29" s="0">
-        <v>0.50631349199000009</v>
+        <v>0.83852287040666673</v>
       </c>
       <c r="G29" s="0">
-        <v>0.59419579276666667</v>
+        <v>0.93260624695000005</v>
       </c>
       <c r="H29" s="0">
-        <v>1.0251431179566666</v>
+        <v>1.2399454366833331</v>
       </c>
       <c r="I29" s="0">
-        <v>1.0317042339333333</v>
+        <v>1.0062944868333332</v>
       </c>
       <c r="J29" s="0">
-        <v>1.6480870428666667</v>
+        <v>1.3806733101071669</v>
       </c>
       <c r="K29" s="0">
-        <v>0.43340062223333337</v>
+        <v>0.68327569958333334</v>
       </c>
       <c r="L29" s="0">
-        <v>0.59055631000000008</v>
+        <v>0.83823234140000003</v>
       </c>
       <c r="M29" s="0">
-        <v>-0.014059869866666741</v>
+        <v>-0.40731371021666662</v>
       </c>
       <c r="N29" s="0">
-        <v>0.87525305463333325</v>
+        <v>1.0216686186833335</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.14194055906166664</v>
+        <v>0.041640679314999998</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.29063947388166667</v>
+        <v>-0.34802411048333332</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.009948123617666671</v>
+        <v>-0.097421201230999996</v>
       </c>
       <c r="D30" s="0">
-        <v>0.35392557795499996</v>
+        <v>0.3286158853533333</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.059026206583333296</v>
+        <v>-0.042523291550000009</v>
       </c>
       <c r="F30" s="0">
-        <v>0.11936348921333335</v>
+        <v>0.074566396164999993</v>
       </c>
       <c r="G30" s="0">
-        <v>0.2817317887466666</v>
+        <v>0.10728416807499999</v>
       </c>
       <c r="H30" s="0">
-        <v>0.078171639916666646</v>
+        <v>0.046376948466666706</v>
       </c>
       <c r="I30" s="0">
-        <v>0.11154205020833333</v>
+        <v>-0.066632211024999999</v>
       </c>
       <c r="J30" s="0">
-        <v>-0.27681182499666668</v>
+        <v>-0.68522664873333339</v>
       </c>
       <c r="K30" s="0">
-        <v>-0.70302318533333341</v>
+        <v>-0.89668531156666664</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.73054805674000001</v>
+        <v>-0.55779653506666671</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.18797097159999998</v>
+        <v>-0.39155289241666669</v>
       </c>
       <c r="N30" s="0">
-        <v>0.067147625678999984</v>
+        <v>0.20023831461899999</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.40798875952666669</v>
+        <v>-0.32764314785999998</v>
       </c>
       <c r="B31" s="0">
-        <v>0.028201117923333328</v>
+        <v>-0.11283296329999999</v>
       </c>
       <c r="C31" s="0">
-        <v>0.16812864584699999</v>
+        <v>0.03436555575000004</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.10415309738333334</v>
+        <v>-0.042729435349999983</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.70865496406333328</v>
+        <v>-0.72164876427999991</v>
       </c>
       <c r="F31" s="0">
-        <v>-0.6346852015133333</v>
+        <v>-0.69340470841333335</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.56493257355333326</v>
+        <v>-0.50286383128666667</v>
       </c>
       <c r="H31" s="0">
-        <v>-0.58192725001533341</v>
+        <v>-0.55729049921533336</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.46601255431666666</v>
+        <v>-0.63758930532666669</v>
       </c>
       <c r="J31" s="0">
-        <v>-0.10483350374166664</v>
+        <v>-0.46403076344999994</v>
       </c>
       <c r="K31" s="0">
-        <v>-0.51357474387666657</v>
+        <v>-0.88119792654333329</v>
       </c>
       <c r="L31" s="0">
-        <v>-0.21502503671833328</v>
+        <v>-0.56273331063333332</v>
       </c>
       <c r="M31" s="0">
-        <v>-0.32224619483333339</v>
+        <v>-0.95128970530000001</v>
       </c>
       <c r="N31" s="0">
-        <v>-0.2741346821666667</v>
+        <v>-0.37125474314999996</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.45628755926666664</v>
+        <v>0.023760334783333337</v>
       </c>
       <c r="B32" s="0">
-        <v>0.21798553170333332</v>
+        <v>-0.23870171981333332</v>
       </c>
       <c r="C32" s="0">
-        <v>0.033420540899999976</v>
+        <v>0.01304689106666666</v>
       </c>
       <c r="D32" s="0">
-        <v>0.17686770834666668</v>
+        <v>0.03764503579666667</v>
       </c>
       <c r="E32" s="0">
-        <v>0.21601418909999998</v>
+        <v>0.018816518699999979</v>
       </c>
       <c r="F32" s="0">
-        <v>-0.0013811004533333532</v>
+        <v>0.074512841839999983</v>
       </c>
       <c r="G32" s="0">
-        <v>0.18632212128333334</v>
+        <v>0.021124575766666653</v>
       </c>
       <c r="H32" s="0">
-        <v>-0.020231219036666692</v>
+        <v>-0.082458525940000013</v>
       </c>
       <c r="I32" s="0">
-        <v>0.047009789276666644</v>
+        <v>-0.00099785343333336218</v>
       </c>
       <c r="J32" s="0">
-        <v>-0.42294913553333335</v>
+        <v>-0.28336867606666666</v>
       </c>
       <c r="K32" s="0">
-        <v>-0.34206009086666667</v>
+        <v>-0.64811062965333333</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.071652297738333315</v>
+        <v>-0.45812365363833335</v>
       </c>
       <c r="M32" s="0">
-        <v>-0.22360338698333337</v>
+        <v>-0.78752095135</v>
       </c>
       <c r="N32" s="0">
-        <v>-0.57066390806666667</v>
+        <v>-0.52079429291333335</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.079458058733333337</v>
+        <v>-0.074548068666666634</v>
       </c>
       <c r="B33" s="0">
-        <v>0.21780346604333331</v>
+        <v>0.36207956399333335</v>
       </c>
       <c r="C33" s="0">
-        <v>0.17191285549999999</v>
+        <v>0.2969888517</v>
       </c>
       <c r="D33" s="0">
-        <v>-0.01041187656999995</v>
+        <v>0.031487007842333367</v>
       </c>
       <c r="E33" s="0">
-        <v>0.041176084910000028</v>
+        <v>0.10725902380000005</v>
       </c>
       <c r="F33" s="0">
-        <v>0.018516762333333381</v>
+        <v>0.17414252416666665</v>
       </c>
       <c r="G33" s="0">
-        <v>-0.15746080141666663</v>
+        <v>-0.09253886582666665</v>
       </c>
       <c r="H33" s="0">
-        <v>-0.74550206763333338</v>
+        <v>-0.60607569447333332</v>
       </c>
       <c r="I33" s="0">
-        <v>-0.33753323406666669</v>
+        <v>-0.33345530931666661</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.41185275258333326</v>
+        <v>-0.70091286941666664</v>
       </c>
       <c r="K33" s="0">
-        <v>0.033653018166666701</v>
+        <v>0.25351383116666665</v>
       </c>
       <c r="L33" s="0">
-        <v>0.042599860466666639</v>
+        <v>0.20271989018333333</v>
       </c>
       <c r="M33" s="0">
-        <v>-0.091065044133333273</v>
+        <v>0.041448080768333367</v>
       </c>
       <c r="N33" s="0">
-        <v>0.32619396379333337</v>
+        <v>0.59453573137133331</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.91563001839433333</v>
+        <v>0.56596082576100004</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.48345250746666679</v>
+        <v>-0.62511305593333333</v>
       </c>
       <c r="C34" s="0">
-        <v>-0.5248664676</v>
+        <v>0.036831945833333324</v>
       </c>
       <c r="D34" s="0">
-        <v>0.66806251640000003</v>
+        <v>0.86552902750000005</v>
       </c>
       <c r="E34" s="0">
-        <v>0.65860988984666657</v>
+        <v>0.86625618849666663</v>
       </c>
       <c r="F34" s="0">
-        <v>-0.039308222973333251</v>
+        <v>0.36190297419333334</v>
       </c>
       <c r="G34" s="0">
-        <v>-0.04028740896666666</v>
+        <v>0.73399883383333331</v>
       </c>
       <c r="H34" s="0">
-        <v>-0.063443908566666651</v>
+        <v>0.25380053970000005</v>
       </c>
       <c r="I34" s="0">
-        <v>0.20962556633333335</v>
+        <v>0.60051693110000004</v>
       </c>
       <c r="J34" s="0">
-        <v>0.81319404126666672</v>
+        <v>0.75359193926666668</v>
       </c>
       <c r="K34" s="0">
-        <v>0.77563093798000005</v>
+        <v>0.50945236358000001</v>
       </c>
       <c r="L34" s="0">
-        <v>0.18110753093000004</v>
+        <v>-0.030633554536666691</v>
       </c>
       <c r="M34" s="0">
-        <v>0.8549478495666667</v>
+        <v>0.49263281086666666</v>
       </c>
       <c r="N34" s="0">
-        <v>0.13041631369999998</v>
+        <v>0.21336996936666663</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.626062348765</v>
+        <v>0.59383144003166666</v>
       </c>
       <c r="B35" s="0">
-        <v>0.5850099605500001</v>
+        <v>0.80595487588333348</v>
       </c>
       <c r="C35" s="0">
-        <v>0.66863434502166674</v>
+        <v>0.92562593385500003</v>
       </c>
       <c r="D35" s="0">
-        <v>0.60976996289999996</v>
+        <v>0.54734830746666663</v>
       </c>
       <c r="E35" s="0">
-        <v>0.8860700832466667</v>
+        <v>0.92259745264666659</v>
       </c>
       <c r="F35" s="0">
-        <v>1.0205958526066667</v>
+        <v>0.98804607307333325</v>
       </c>
       <c r="G35" s="0">
-        <v>0.76603153289000003</v>
+        <v>0.93632061261333333</v>
       </c>
       <c r="H35" s="0">
-        <v>0.23476523920866663</v>
+        <v>0.43265263425400002</v>
       </c>
       <c r="I35" s="0">
-        <v>1.0243290241166667</v>
+        <v>0.82132592370000002</v>
       </c>
       <c r="J35" s="0">
-        <v>0.83656571930000001</v>
+        <v>1.1687552101500001</v>
       </c>
       <c r="K35" s="0">
-        <v>0.37501958700999999</v>
+        <v>0.57740260227666673</v>
       </c>
       <c r="L35" s="0">
-        <v>0.49606388011666669</v>
+        <v>0.82056256978333342</v>
       </c>
       <c r="M35" s="0">
-        <v>0.58706931332333323</v>
+        <v>1.0726485886066666</v>
       </c>
       <c r="N35" s="0">
-        <v>0.84201988620000001</v>
+        <v>1.02209349235</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>-0.35678115104333336</v>
+        <v>-0.40865593479666668</v>
       </c>
       <c r="B36" s="0">
-        <v>-0.57383468079666666</v>
+        <v>-0.56058359586333328</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.44843925605833335</v>
+        <v>-0.61814400972499994</v>
       </c>
       <c r="D36" s="0">
-        <v>0.29170339299666664</v>
+        <v>0.074109053036666664</v>
       </c>
       <c r="E36" s="0">
-        <v>0.27768155877666667</v>
+        <v>0.25223609130000002</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.044758562833333335</v>
+        <v>-0.23039327217333333</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.50196402419999997</v>
+        <v>-0.65792626986666669</v>
       </c>
       <c r="H36" s="0">
-        <v>-0.30739746335000007</v>
+        <v>-0.37052826410666673</v>
       </c>
       <c r="I36" s="0">
-        <v>0.35916657168333338</v>
+        <v>0.29935290414999999</v>
       </c>
       <c r="J36" s="0">
-        <v>0.38202117017999998</v>
+        <v>0.2011951103166667</v>
       </c>
       <c r="K36" s="0">
-        <v>-0.83780421782333336</v>
+        <v>-0.86040681417333342</v>
       </c>
       <c r="L36" s="0">
-        <v>-0.39504407926833329</v>
+        <v>-0.46026719728999999</v>
       </c>
       <c r="M36" s="0">
-        <v>-0.72621955066666666</v>
+        <v>-0.77237610363666664</v>
       </c>
       <c r="N36" s="0">
-        <v>-0.26781976964999998</v>
+        <v>-0.29972795735000002</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>-0.26388888084666667</v>
+        <v>-0.070619148536666676</v>
       </c>
       <c r="B37" s="0">
-        <v>-1.1952439285000001</v>
+        <v>-0.68016661533333345</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.71797061398333328</v>
+        <v>-0.34575195219999999</v>
       </c>
       <c r="D37" s="0">
-        <v>-0.093030992234999971</v>
+        <v>0.35988407740666667</v>
       </c>
       <c r="E37" s="0">
-        <v>-0.49414681695000007</v>
+        <v>-0.067288556196666738</v>
       </c>
       <c r="F37" s="0">
-        <v>0.04708234708833331</v>
+        <v>0.3255689164333333</v>
       </c>
       <c r="G37" s="0">
-        <v>0.054284103549999962</v>
+        <v>0.20679620311666666</v>
       </c>
       <c r="H37" s="0">
-        <v>0.14319395392333337</v>
+        <v>0.25019755205000005</v>
       </c>
       <c r="I37" s="0">
-        <v>0.34463409642666665</v>
+        <v>0.4062937858266667</v>
       </c>
       <c r="J37" s="0">
-        <v>0.6600770094166668</v>
+        <v>1.287249509</v>
       </c>
       <c r="K37" s="0">
-        <v>-0.55670370864499996</v>
+        <v>-0.49891804395000006</v>
       </c>
       <c r="L37" s="0">
-        <v>0.31976079221666664</v>
+        <v>0.46356910585000005</v>
       </c>
       <c r="M37" s="0">
-        <v>-0.080928276616666656</v>
+        <v>0.31770246670000002</v>
       </c>
       <c r="N37" s="0">
-        <v>0.79896771146666667</v>
+        <v>0.8530452363333334</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>0.11069647028333332</v>
+        <v>-0.15913592017333336</v>
       </c>
       <c r="B38" s="0">
-        <v>0.11706409945666668</v>
+        <v>-0.08398930637333335</v>
       </c>
       <c r="C38" s="0">
-        <v>0.47789647028333332</v>
+        <v>0.18160278867833332</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.075227073853333368</v>
+        <v>-0.037488389253333324</v>
       </c>
       <c r="E38" s="0">
-        <v>0.067941183199999977</v>
+        <v>0.31655889979999996</v>
       </c>
       <c r="F38" s="0">
-        <v>0.96290517180000001</v>
+        <v>0.55723618441666667</v>
       </c>
       <c r="G38" s="0">
-        <v>0.68133984816666671</v>
+        <v>0.16884788698333325</v>
       </c>
       <c r="H38" s="0">
-        <v>0.51413734376666664</v>
+        <v>0.081608315016666655</v>
       </c>
       <c r="I38" s="0">
-        <v>0.37242971668333325</v>
+        <v>0.32753032879999999</v>
       </c>
       <c r="J38" s="0">
-        <v>0.21322759946666661</v>
+        <v>-0.37202049243333335</v>
       </c>
       <c r="K38" s="0">
-        <v>0.79850151886666665</v>
+        <v>0.91225201571666659</v>
       </c>
       <c r="L38" s="0">
-        <v>1.2905331229166666</v>
+        <v>1.1150116451000001</v>
       </c>
       <c r="M38" s="0">
-        <v>0.94448500761666665</v>
+        <v>0.82536847781666678</v>
       </c>
       <c r="N38" s="0">
-        <v>-0.090862017241666648</v>
+        <v>-0.21567746737499993</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>-0.15526887793333333</v>
+        <v>-0.1878164544</v>
       </c>
       <c r="B39" s="0">
-        <v>0.0079019746000000175</v>
+        <v>0.17831505836333333</v>
       </c>
       <c r="C39" s="0">
-        <v>-0.034778698383333362</v>
+        <v>-0.2531178213166666</v>
       </c>
       <c r="D39" s="0">
-        <v>0.17921575131666673</v>
+        <v>0.1650787276166667</v>
       </c>
       <c r="E39" s="0">
-        <v>0.29639130813333325</v>
+        <v>0.25078731315000002</v>
       </c>
       <c r="F39" s="0">
-        <v>-0.15876170086666669</v>
+        <v>-0.089887950533333316</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.17449147556666667</v>
+        <v>-0.34783519136666663</v>
       </c>
       <c r="H39" s="0">
-        <v>0.75932264820000006</v>
+        <v>0.44397896042333335</v>
       </c>
       <c r="I39" s="0">
-        <v>-0.19465867993000002</v>
+        <v>-0.22805296045666668</v>
       </c>
       <c r="J39" s="0">
-        <v>-0.62167541583249997</v>
+        <v>-1.0812447125158333</v>
       </c>
       <c r="K39" s="0">
-        <v>-0.88622314331666674</v>
+        <v>-0.85175095546666668</v>
       </c>
       <c r="L39" s="0">
-        <v>-0.50525118958000004</v>
+        <v>-0.34042718064999999</v>
       </c>
       <c r="M39" s="0">
-        <v>-0.30513105825000003</v>
+        <v>0.045515918160833349</v>
       </c>
       <c r="N39" s="0">
-        <v>-1.0564507218533334</v>
+        <v>-1.13737098482</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.40249827902966662</v>
+        <v>0.26345145578466667</v>
       </c>
       <c r="B40" s="0">
-        <v>0.56441661646666663</v>
+        <v>0.81190763506666663</v>
       </c>
       <c r="C40" s="0">
-        <v>1.1264196376666666</v>
+        <v>1.4393504145666665</v>
       </c>
       <c r="D40" s="0">
-        <v>0.15626891855</v>
+        <v>0.13268350788333333</v>
       </c>
       <c r="E40" s="0">
-        <v>0.30410800292333334</v>
+        <v>0.20407758314833332</v>
       </c>
       <c r="F40" s="0">
-        <v>0.83906867143333341</v>
+        <v>1.0205872414033332</v>
       </c>
       <c r="G40" s="0">
-        <v>0.72630646724000003</v>
+        <v>1.0591929066233332</v>
       </c>
       <c r="H40" s="0">
-        <v>0.29900992033000001</v>
+        <v>0.60194440979300001</v>
       </c>
       <c r="I40" s="0">
-        <v>0.18503564838000003</v>
+        <v>0.32532670946666664</v>
       </c>
       <c r="J40" s="0">
-        <v>0.30579293645833333</v>
+        <v>0.41603549251666672</v>
       </c>
       <c r="K40" s="0">
-        <v>1.3599714554333333</v>
+        <v>1.6995168342000002</v>
       </c>
       <c r="L40" s="0">
-        <v>1.5483008874999999</v>
+        <v>1.7585171071666665</v>
       </c>
       <c r="M40" s="0">
-        <v>1.3558339955166667</v>
+        <v>1.3687033555166668</v>
       </c>
       <c r="N40" s="0">
-        <v>1.1855530636633334</v>
+        <v>1.2000266973833333</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>-0.38526256024666661</v>
+        <v>0.21994844786333337</v>
       </c>
       <c r="B41" s="0">
-        <v>0.16654300454999998</v>
+        <v>0.72625849485000005</v>
       </c>
       <c r="C41" s="0">
-        <v>0.48145999601666667</v>
+        <v>0.93353310084999996</v>
       </c>
       <c r="D41" s="0">
-        <v>0.11183779931166668</v>
+        <v>0.31531377575333336</v>
       </c>
       <c r="E41" s="0">
-        <v>-0.2317169127</v>
+        <v>0.0064143860233332739</v>
       </c>
       <c r="F41" s="0">
-        <v>0.27902243459999998</v>
+        <v>0.53521975306666669</v>
       </c>
       <c r="G41" s="0">
-        <v>0.56645321738333332</v>
+        <v>0.83678305058333335</v>
       </c>
       <c r="H41" s="0">
-        <v>0.23520669044500003</v>
+        <v>0.42741526850833333</v>
       </c>
       <c r="I41" s="0">
-        <v>0.22679720489833333</v>
+        <v>0.58029169234833333</v>
       </c>
       <c r="J41" s="0">
-        <v>-0.21253499004333332</v>
+        <v>-0.072771825643333329</v>
       </c>
       <c r="K41" s="0">
-        <v>-0.038733751213333341</v>
+        <v>0.46778448990333332</v>
       </c>
       <c r="L41" s="0">
-        <v>0.70942886661666671</v>
+        <v>1.3247132932833332</v>
       </c>
       <c r="M41" s="0">
-        <v>1.0650556067499999</v>
+        <v>1.5421513906999997</v>
       </c>
       <c r="N41" s="0">
-        <v>0.24279514367999999</v>
+        <v>0.97880980386666661</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.40386615104999996</v>
+        <v>0.4238036458333333</v>
       </c>
       <c r="B42" s="0">
-        <v>0.30268264906666675</v>
+        <v>0.47669470311666673</v>
       </c>
       <c r="C42" s="0">
-        <v>0.33790938424333333</v>
+        <v>0.26215351173666668</v>
       </c>
       <c r="D42" s="0">
-        <v>0.69210464573333341</v>
+        <v>0.56943785609999997</v>
       </c>
       <c r="E42" s="0">
-        <v>0.085836131183333345</v>
+        <v>0.20507262724833336</v>
       </c>
       <c r="F42" s="0">
-        <v>0.2290689258333333</v>
+        <v>0.21069979931666666</v>
       </c>
       <c r="G42" s="0">
-        <v>-0.27381797666666663</v>
+        <v>-0.19007045644999992</v>
       </c>
       <c r="H42" s="0">
-        <v>0.06756168114833333</v>
+        <v>0.14306515121500002</v>
       </c>
       <c r="I42" s="0">
-        <v>0.34659928203666662</v>
+        <v>0.32255126186666672</v>
       </c>
       <c r="J42" s="0">
-        <v>1.3669999058033335</v>
+        <v>1.2410383999200001</v>
       </c>
       <c r="K42" s="0">
-        <v>0.68436379641666667</v>
+        <v>0.64233261374999995</v>
       </c>
       <c r="L42" s="0">
-        <v>0.55954623039999996</v>
+        <v>0.55642336500000011</v>
       </c>
       <c r="M42" s="0">
-        <v>0.11545981493166668</v>
+        <v>0.34961975974833337</v>
       </c>
       <c r="N42" s="0">
-        <v>1.6055038389833336</v>
+        <v>1.3055272809500003</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>0.044107425110000015</v>
+        <v>-0.0020016807966666619</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.39915090608666665</v>
+        <v>-0.5353846340366667</v>
       </c>
       <c r="C43" s="0">
-        <v>-0.3284699354333333</v>
+        <v>-0.28954925688333333</v>
       </c>
       <c r="D43" s="0">
-        <v>0.26060431263333333</v>
+        <v>0.18407142473333332</v>
       </c>
       <c r="E43" s="0">
-        <v>0.11427770731666664</v>
+        <v>-0.1445511636366667</v>
       </c>
       <c r="F43" s="0">
-        <v>0.60720918825000003</v>
+        <v>0.47541179688333335</v>
       </c>
       <c r="G43" s="0">
-        <v>0.6864332115166667</v>
+        <v>0.4754317273</v>
       </c>
       <c r="H43" s="0">
-        <v>0.54439536096600005</v>
+        <v>0.47900220890599998</v>
       </c>
       <c r="I43" s="0">
-        <v>0.20322133950833335</v>
+        <v>0.054988675333333348</v>
       </c>
       <c r="J43" s="0">
-        <v>1.5032714156666667</v>
+        <v>0.73426733513999998</v>
       </c>
       <c r="K43" s="0">
-        <v>-1.2030949179666666</v>
+        <v>-0.90141574533666657</v>
       </c>
       <c r="L43" s="0">
-        <v>-0.095049935370000005</v>
+        <v>-0.40932534383000002</v>
       </c>
       <c r="M43" s="0">
-        <v>-0.053595763436666666</v>
+        <v>-0.51637550713333336</v>
       </c>
       <c r="N43" s="0">
-        <v>0.6080391419333333</v>
+        <v>0.16818944775000005</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.11260775291666665</v>
+        <v>0.057585518399999994</v>
       </c>
       <c r="B44" s="0">
-        <v>0.53863694051666666</v>
+        <v>0.25654638021666665</v>
       </c>
       <c r="C44" s="0">
-        <v>0.062576559288333361</v>
+        <v>0.177829661321</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.28821338351333337</v>
+        <v>-0.49489928560604002</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.044896405943333335</v>
+        <v>-0.32787051829000002</v>
       </c>
       <c r="F44" s="0">
-        <v>0.41137831673333342</v>
+        <v>0.25031500816666669</v>
       </c>
       <c r="G44" s="0">
-        <v>0.64935856836666672</v>
+        <v>0.51026380868333332</v>
       </c>
       <c r="H44" s="0">
-        <v>0.6578252165766667</v>
+        <v>0.34698507242666665</v>
       </c>
       <c r="I44" s="0">
-        <v>-0.37709055893666665</v>
+        <v>-0.41689238419666674</v>
       </c>
       <c r="J44" s="0">
-        <v>0.66036157595</v>
+        <v>0.95655749141666668</v>
       </c>
       <c r="K44" s="0">
-        <v>0.59593016760333328</v>
+        <v>0.85930728733666661</v>
       </c>
       <c r="L44" s="0">
-        <v>0.29104933176600001</v>
+        <v>0.13504128204999999</v>
       </c>
       <c r="M44" s="0">
-        <v>0.090494989716666585</v>
+        <v>0.27061299969999997</v>
       </c>
       <c r="N44" s="0">
-        <v>-0.2182942095</v>
+        <v>-0.10833647430000004</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.22580046787500002</v>
+        <v>0.48717264105000002</v>
       </c>
       <c r="B45" s="0">
-        <v>0.20137882161666662</v>
+        <v>0.53764739918333326</v>
       </c>
       <c r="C45" s="0">
-        <v>0.51637598141666663</v>
+        <v>0.56628251403333341</v>
       </c>
       <c r="D45" s="0">
-        <v>0.55312496107666664</v>
+        <v>0.53238574875</v>
       </c>
       <c r="E45" s="0">
-        <v>0.63915204763333333</v>
+        <v>0.4625650580166667</v>
       </c>
       <c r="F45" s="0">
-        <v>0.83734920632333332</v>
+        <v>0.52718391714000001</v>
       </c>
       <c r="G45" s="0">
-        <v>0.64519916905000008</v>
+        <v>0.92482907464999997</v>
       </c>
       <c r="H45" s="0">
-        <v>0.55740347288666658</v>
+        <v>0.63267459716700003</v>
       </c>
       <c r="I45" s="0">
-        <v>-0.21152150075000001</v>
+        <v>-0.20393814234533333</v>
       </c>
       <c r="J45" s="0">
-        <v>0.51056039068333336</v>
+        <v>0.018425255450000011</v>
       </c>
       <c r="K45" s="0">
-        <v>0.70933070615000005</v>
+        <v>0.65482966551666666</v>
       </c>
       <c r="L45" s="0">
-        <v>0.5032421792166667</v>
+        <v>0.45195829706666657</v>
       </c>
       <c r="M45" s="0">
-        <v>-0.048141613583333409</v>
+        <v>0.078069193816666632</v>
       </c>
       <c r="N45" s="0">
-        <v>0.60905005099999998</v>
+        <v>0.71393067903333329</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.88047033414999998</v>
+        <v>-0.69264855759999999</v>
       </c>
       <c r="B46" s="0">
-        <v>-1.1084642182</v>
+        <v>-1.0219271517499999</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.48622974224499993</v>
+        <v>-0.23440039239499993</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.71289358559999993</v>
+        <v>-0.55489191695499995</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.61200051956500001</v>
+        <v>-0.56814573690000003</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.90112223709999995</v>
+        <v>-0.77735144702999992</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.89806096945000002</v>
+        <v>-0.49627078985</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.6162864265300001</v>
+        <v>-0.51200369765000009</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.4307767493050001</v>
+        <v>-0.29266084190500008</v>
       </c>
       <c r="J46" s="0">
-        <v>-0.76293658310000012</v>
+        <v>-0.56087502515000009</v>
       </c>
       <c r="K46" s="0">
-        <v>-0.42803476978999999</v>
+        <v>-0.42244231763999995</v>
       </c>
       <c r="L46" s="0">
-        <v>-0.23754300884999999</v>
+        <v>-0.044846618245000025</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.51570139249000002</v>
+        <v>-0.042610620190000004</v>
       </c>
       <c r="N46" s="0">
-        <v>0.61813047566500001</v>
+        <v>0.45680033284999999</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>-0.26156804220000002</v>
+        <v>-0.38557110416666673</v>
       </c>
       <c r="B47" s="0">
-        <v>-0.77089290843333336</v>
+        <v>-0.86011967276666668</v>
       </c>
       <c r="C47" s="0">
-        <v>-1.09645968367</v>
+        <v>-1.0481915680033334</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.41300468933000001</v>
+        <v>-0.33763355101333337</v>
       </c>
       <c r="E47" s="0">
-        <v>-0.032984265546000008</v>
+        <v>0.077630406453999989</v>
       </c>
       <c r="F47" s="0">
-        <v>-0.1152660818</v>
+        <v>0.24678721636666667</v>
       </c>
       <c r="G47" s="0">
-        <v>-0.97959132835666662</v>
+        <v>-0.83214354253999989</v>
       </c>
       <c r="H47" s="0">
-        <v>-0.013885313486666662</v>
+        <v>-0.1061900688666667</v>
       </c>
       <c r="I47" s="0">
-        <v>-0.65518789669999999</v>
+        <v>-0.38915819539999996</v>
       </c>
       <c r="J47" s="0">
-        <v>-0.36763488484333334</v>
+        <v>-0.77906089102666665</v>
       </c>
       <c r="K47" s="0">
-        <v>-0.5008580571433332</v>
+        <v>-0.58968776627666664</v>
       </c>
       <c r="L47" s="0">
-        <v>-0.94087964804333335</v>
+        <v>-0.96467311124333321</v>
       </c>
       <c r="M47" s="0">
-        <v>-0.36564735446666663</v>
+        <v>-0.43979496152000008</v>
       </c>
       <c r="N47" s="0">
-        <v>-0.84282388679999987</v>
+        <v>-0.7255019596333333</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>0.15755769820000001</v>
+        <v>-0.025386693474999972</v>
       </c>
       <c r="B48" s="0">
-        <v>0.28225246814999999</v>
+        <v>0.21422488909999998</v>
       </c>
       <c r="C48" s="0">
-        <v>0.32785662929999998</v>
+        <v>0.25919914075</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.064172000519999994</v>
+        <v>-0.16555963525</v>
       </c>
       <c r="E48" s="0">
-        <v>0.28576644080000002</v>
+        <v>0.26740580480000004</v>
       </c>
       <c r="F48" s="0">
-        <v>0.41560279385000004</v>
+        <v>0.28387500845000002</v>
       </c>
       <c r="G48" s="0">
-        <v>0.84581707330000011</v>
+        <v>0.67899192535000008</v>
       </c>
       <c r="H48" s="0">
-        <v>0.54000925313500003</v>
+        <v>0.37356549428499997</v>
       </c>
       <c r="I48" s="0">
-        <v>-0.090681941425000023</v>
+        <v>-0.060061900825000014</v>
       </c>
       <c r="J48" s="0">
-        <v>0.63006451249999995</v>
+        <v>1.0284598738899999</v>
       </c>
       <c r="K48" s="0">
-        <v>0.43399283729999999</v>
+        <v>0.63178215390000003</v>
       </c>
       <c r="L48" s="0">
-        <v>-0.32914635640000001</v>
+        <v>-0.27563274690000006</v>
       </c>
       <c r="M48" s="0">
-        <v>-0.35619780029500003</v>
+        <v>-0.140989477945</v>
       </c>
       <c r="N48" s="0">
-        <v>0.37815467214499998</v>
+        <v>0.69729834655</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>0.16912723904999999</v>
+        <v>-0.13457954784999998</v>
       </c>
       <c r="B49" s="0">
-        <v>0.63423428854999997</v>
+        <v>0.35265671519999997</v>
       </c>
       <c r="C49" s="0">
-        <v>0.51676585930000007</v>
+        <v>0.26955802475000012</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.258589249455</v>
+        <v>-0.39060353276500004</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.53392841300000005</v>
+        <v>-0.67824424360000002</v>
       </c>
       <c r="F49" s="0">
-        <v>-0.33928863730000003</v>
+        <v>-0.45506367442499995</v>
       </c>
       <c r="G49" s="0">
-        <v>-0.62221230625000001</v>
+        <v>-0.76082120606999992</v>
       </c>
       <c r="H49" s="0">
-        <v>-0.37721314908999998</v>
+        <v>-0.45490196899999996</v>
       </c>
       <c r="I49" s="0">
-        <v>0.19782326490000002</v>
+        <v>-0.11094509685999998</v>
       </c>
       <c r="J49" s="0">
-        <v>0.46116917414999997</v>
+        <v>0.42418952095000001</v>
       </c>
       <c r="K49" s="0">
-        <v>-0.18576720690000004</v>
+        <v>-0.36625782120000006</v>
       </c>
       <c r="L49" s="0">
-        <v>0.1803143036999999</v>
+        <v>-0.099661244950000061</v>
       </c>
       <c r="M49" s="0">
-        <v>0.66099890015000007</v>
+        <v>0.37380717500000005</v>
       </c>
       <c r="N49" s="0">
-        <v>0.34526233354999997</v>
+        <v>-0.046560940450000032</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.42956977303666666</v>
+        <v>0.080009734599999979</v>
       </c>
       <c r="B50" s="0">
-        <v>0.5338856137100001</v>
+        <v>0.27920733319500002</v>
       </c>
       <c r="C50" s="0">
-        <v>0.28629343026333332</v>
+        <v>0.10086491374999998</v>
       </c>
       <c r="D50" s="0">
-        <v>0.50562004279666672</v>
+        <v>0.76294263774000004</v>
       </c>
       <c r="E50" s="0">
-        <v>0.094097586569333314</v>
+        <v>0.19767537038599997</v>
       </c>
       <c r="F50" s="0">
-        <v>0.78609720298666663</v>
+        <v>0.86149860439999992</v>
       </c>
       <c r="G50" s="0">
-        <v>0.92496174491666672</v>
+        <v>1.0002251770333332</v>
       </c>
       <c r="H50" s="0">
-        <v>0.67039485574333335</v>
+        <v>0.9879302050633334</v>
       </c>
       <c r="I50" s="0">
-        <v>0.59757233361666673</v>
+        <v>0.5058831743833333</v>
       </c>
       <c r="J50" s="0">
-        <v>1.4393291029499999</v>
+        <v>1.2881807822283333</v>
       </c>
       <c r="K50" s="0">
-        <v>0.56404719065666664</v>
+        <v>0.11880169658999999</v>
       </c>
       <c r="L50" s="0">
-        <v>0.96578249912999992</v>
+        <v>0.32916519597999994</v>
       </c>
       <c r="M50" s="0">
-        <v>1.0431142626500001</v>
+        <v>0.35851487403333326</v>
       </c>
       <c r="N50" s="0">
-        <v>1.5008397211783333</v>
+        <v>0.79270008400000003</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>-0.24193251183000003</v>
+        <v>-0.21500082288000005</v>
       </c>
       <c r="B51" s="0">
-        <v>-0.90320563749999994</v>
+        <v>-0.88358378950000005</v>
       </c>
       <c r="C51" s="0">
-        <v>-1.2427131399</v>
+        <v>-1.3483342714000002</v>
       </c>
       <c r="D51" s="0">
-        <v>-0.83758635060000008</v>
+        <v>-1.1055180717500002</v>
       </c>
       <c r="E51" s="0">
-        <v>-1.389914404525</v>
+        <v>-1.8871303982250001</v>
       </c>
       <c r="F51" s="0">
-        <v>-1.1579920765000002</v>
+        <v>-1.0383125115</v>
       </c>
       <c r="G51" s="0">
-        <v>-0.48201825510000007</v>
+        <v>-0.092156986900000043</v>
       </c>
       <c r="H51" s="0">
-        <v>-0.13113117424999998</v>
+        <v>0.031304938050000009</v>
       </c>
       <c r="I51" s="0">
-        <v>-1.1056730357</v>
+        <v>-1.24925447095</v>
       </c>
       <c r="J51" s="0">
-        <v>1.1816109246150002</v>
+        <v>0.98080697396500005</v>
       </c>
       <c r="K51" s="0">
-        <v>-1.1144699498574999</v>
+        <v>-1.2616288503574999</v>
       </c>
       <c r="L51" s="0">
-        <v>-0.98742811975</v>
+        <v>-0.98130858285</v>
       </c>
       <c r="M51" s="0">
-        <v>-1.66676837025</v>
+        <v>-1.67203114165</v>
       </c>
       <c r="N51" s="0">
-        <v>-1.8295251342499999</v>
+        <v>-1.409701018</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>-0.064321506475000012</v>
+        <v>-0.12986890785000005</v>
       </c>
       <c r="B52" s="0">
-        <v>0.058015359799999944</v>
+        <v>-0.15477882268000009</v>
       </c>
       <c r="C52" s="0">
-        <v>0.26621180140000006</v>
+        <v>0.13517267830000002</v>
       </c>
       <c r="D52" s="0">
-        <v>0.050993735499999984</v>
+        <v>-0.04227533120000003</v>
       </c>
       <c r="E52" s="0">
-        <v>0.23837320120000005</v>
+        <v>0.15338676125000006</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.090139505059999958</v>
+        <v>-0.029587105759999954</v>
       </c>
       <c r="G52" s="0">
-        <v>0.065014373600000008</v>
+        <v>0.066449188100000001</v>
       </c>
       <c r="H52" s="0">
-        <v>-0.21085331137000002</v>
+        <v>-0.25962529547000002</v>
       </c>
       <c r="I52" s="0">
-        <v>0.37156836760500001</v>
+        <v>0.39709542950500004</v>
       </c>
       <c r="J52" s="0">
-        <v>0.38032729175700003</v>
+        <v>0.27942818164</v>
       </c>
       <c r="K52" s="0">
-        <v>0.42321963337500002</v>
+        <v>0.24572864082499998</v>
       </c>
       <c r="L52" s="0">
-        <v>-0.48070944038000002</v>
+        <v>-0.17970796755000007</v>
       </c>
       <c r="M52" s="0">
-        <v>0.056878340105000036</v>
+        <v>-0.24617648254499999</v>
       </c>
       <c r="N52" s="0">
-        <v>0.60415096084999997</v>
+        <v>0.7683881774500001</v>
       </c>
     </row>
     <row r="53">

--- a/code/h2_data_right.xlsx
+++ b/code/h2_data_right.xlsx
@@ -13,7 +13,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -373,46 +457,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>112</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>113</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>115</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>116</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>118</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>119</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>120</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>95</v>
+        <v>123</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>96</v>
+        <v>124</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>97</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_right.xlsx
+++ b/code/h2_data_right.xlsx
@@ -13,7 +13,1225 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -373,46 +1591,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>84</v>
+        <v>490</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>85</v>
+        <v>491</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>86</v>
+        <v>492</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>87</v>
+        <v>493</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>88</v>
+        <v>494</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>89</v>
+        <v>495</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>90</v>
+        <v>496</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>91</v>
+        <v>497</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>92</v>
+        <v>498</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>93</v>
+        <v>499</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>94</v>
+        <v>500</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>95</v>
+        <v>501</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>96</v>
+        <v>502</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>97</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_right.xlsx
+++ b/code/h2_data_right.xlsx
@@ -13,7 +13,301 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -1574,2351 +1868,2351 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
-    <col min="3" max="3" width="14.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="3" max="3" width="14.7109375" customWidth="true"/>
     <col min="4" max="4" width="14.42578125" customWidth="true"/>
-    <col min="5" max="5" width="16.42578125" customWidth="true"/>
+    <col min="5" max="5" width="15.7109375" customWidth="true"/>
     <col min="6" max="6" width="14.7109375" customWidth="true"/>
-    <col min="7" max="7" width="15.42578125" customWidth="true"/>
+    <col min="7" max="7" width="14.42578125" customWidth="true"/>
     <col min="8" max="8" width="14.42578125" customWidth="true"/>
-    <col min="9" max="9" width="16.42578125" customWidth="true"/>
-    <col min="10" max="10" width="14.42578125" customWidth="true"/>
-    <col min="11" max="11" width="14.42578125" customWidth="true"/>
+    <col min="9" max="9" width="13.7109375" customWidth="true"/>
+    <col min="10" max="10" width="14.7109375" customWidth="true"/>
+    <col min="11" max="11" width="15.42578125" customWidth="true"/>
     <col min="12" max="12" width="16.42578125" customWidth="true"/>
     <col min="13" max="13" width="16.5703125" customWidth="true"/>
-    <col min="14" max="14" width="14.42578125" customWidth="true"/>
+    <col min="14" max="14" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>490</v>
+        <v>588</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>491</v>
+        <v>589</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>492</v>
+        <v>590</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>493</v>
+        <v>591</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>494</v>
+        <v>592</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>495</v>
+        <v>593</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>496</v>
+        <v>594</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>497</v>
+        <v>595</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>498</v>
+        <v>596</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>499</v>
+        <v>597</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>500</v>
+        <v>598</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>501</v>
+        <v>599</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>502</v>
+        <v>600</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>503</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.35236831209000002</v>
+        <v>-0.41785794355</v>
       </c>
       <c r="B2" s="0">
-        <v>0.020971230329999993</v>
+        <v>-0.49401922234999995</v>
       </c>
       <c r="C2" s="0">
-        <v>-0.20259292910999999</v>
+        <v>-0.19453355088999999</v>
       </c>
       <c r="D2" s="0">
-        <v>0.232421210445</v>
+        <v>0.18654143340000001</v>
       </c>
       <c r="E2" s="0">
-        <v>0.53005618403999999</v>
+        <v>0.021261309300000003</v>
       </c>
       <c r="F2" s="0">
-        <v>0.14213989827000001</v>
+        <v>-0.42325712641000002</v>
       </c>
       <c r="G2" s="0">
-        <v>-0.18180497038499999</v>
+        <v>-0.2717334937</v>
       </c>
       <c r="H2" s="0">
-        <v>-0.19624049368399998</v>
+        <v>-0.35862523774999999</v>
       </c>
       <c r="I2" s="0">
-        <v>-0.33533148237349997</v>
+        <v>-0.24163961393</v>
       </c>
       <c r="J2" s="0">
-        <v>-0.14344035365000007</v>
+        <v>0.11873503835</v>
       </c>
       <c r="K2" s="0">
-        <v>0.28624279545000003</v>
+        <v>-0.11309856330000002</v>
       </c>
       <c r="L2" s="0">
-        <v>0.102820592145</v>
+        <v>-0.31019287179499999</v>
       </c>
       <c r="M2" s="0">
-        <v>0.11768635030000001</v>
+        <v>0.062167637070000017</v>
       </c>
       <c r="N2" s="0">
-        <v>0.15064260970000004</v>
+        <v>0.208774914895</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.23389143466999995</v>
+        <v>0.13939963784999998</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.16639326934999998</v>
+        <v>-0.090831402283333307</v>
       </c>
       <c r="C3" s="0">
-        <v>0.33006911370000008</v>
+        <v>0.32564868923333329</v>
       </c>
       <c r="D3" s="0">
-        <v>-0.16809070394</v>
+        <v>0.26241120803333334</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.17558617531666676</v>
+        <v>0.33007849423333335</v>
       </c>
       <c r="F3" s="0">
-        <v>-0.40471880721666664</v>
+        <v>0.095779555849999976</v>
       </c>
       <c r="G3" s="0">
-        <v>-0.24827867708333334</v>
+        <v>0.21429990949333333</v>
       </c>
       <c r="H3" s="0">
-        <v>-0.046029694563333348</v>
+        <v>-0.11760521124500001</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.67836378396666674</v>
+        <v>-0.2455154556166666</v>
       </c>
       <c r="J3" s="0">
-        <v>0.50547868524999995</v>
+        <v>-0.23538284410000004</v>
       </c>
       <c r="K3" s="0">
-        <v>0.45599815782666675</v>
+        <v>0.37938201027000007</v>
       </c>
       <c r="L3" s="0">
-        <v>-0.21128039642666657</v>
+        <v>0.11883656286499999</v>
       </c>
       <c r="M3" s="0">
-        <v>-0.8920076451233333</v>
+        <v>-0.18339116655000004</v>
       </c>
       <c r="N3" s="0">
-        <v>0.037125883500000012</v>
+        <v>1.3342409641849999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.16109976916500002</v>
+        <v>-0.29426727150500004</v>
       </c>
       <c r="B4" s="0">
-        <v>-1.0994254579666667</v>
+        <v>-1.0087204467233333</v>
       </c>
       <c r="C4" s="0">
-        <v>-1.5938632239400001</v>
+        <v>-1.5376417652333334</v>
       </c>
       <c r="D4" s="0">
-        <v>-0.72989614393333335</v>
+        <v>-0.72671838121666665</v>
       </c>
       <c r="E4" s="0">
-        <v>-0.59842245261666671</v>
+        <v>-0.20290285209999998</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.62715960176666652</v>
+        <v>-0.25132171556666666</v>
       </c>
       <c r="G4" s="0">
-        <v>-1.0401571789993334</v>
+        <v>-0.73760390350000005</v>
       </c>
       <c r="H4" s="0">
-        <v>-0.60108222268666667</v>
+        <v>-0.5930549971600001</v>
       </c>
       <c r="I4" s="0">
-        <v>-0.19579646872666667</v>
+        <v>-0.21227342002666666</v>
       </c>
       <c r="J4" s="0">
-        <v>-1.4469894162366668</v>
+        <v>-0.54607445902999996</v>
       </c>
       <c r="K4" s="0">
-        <v>-1.3940702373666669</v>
+        <v>-1.0290494167066666</v>
       </c>
       <c r="L4" s="0">
-        <v>-0.7011195165166666</v>
+        <v>0.022644864883333365</v>
       </c>
       <c r="M4" s="0">
-        <v>-0.024620321391666644</v>
+        <v>0.0076014471766666092</v>
       </c>
       <c r="N4" s="0">
-        <v>-0.98280009595000006</v>
+        <v>-0.22359010002333329</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.50180481406666655</v>
+        <v>-0.11519638369999999</v>
       </c>
       <c r="B5" s="0">
-        <v>-0.21734430426499995</v>
+        <v>-0.31523474541999996</v>
       </c>
       <c r="C5" s="0">
-        <v>-0.37813477010166663</v>
+        <v>-0.27026040723666672</v>
       </c>
       <c r="D5" s="0">
-        <v>0.16438331305333334</v>
+        <v>0.55912296753333346</v>
       </c>
       <c r="E5" s="0">
-        <v>0.27701419745166667</v>
+        <v>0.47098399390000006</v>
       </c>
       <c r="F5" s="0">
-        <v>-0.16051442707333335</v>
+        <v>0.030480387693333319</v>
       </c>
       <c r="G5" s="0">
-        <v>-0.44369376918333336</v>
+        <v>-0.33457160631666671</v>
       </c>
       <c r="H5" s="0">
-        <v>0.20139192588100005</v>
+        <v>0.093453615359999978</v>
       </c>
       <c r="I5" s="0">
-        <v>0.68735655904166659</v>
+        <v>0.98111972717999996</v>
       </c>
       <c r="J5" s="0">
-        <v>-0.95406956465000015</v>
+        <v>0.044964584400000021</v>
       </c>
       <c r="K5" s="0">
-        <v>-0.23300890621666667</v>
+        <v>0.0027975351566666279</v>
       </c>
       <c r="L5" s="0">
-        <v>0.86120068063333333</v>
+        <v>0.30725543822000001</v>
       </c>
       <c r="M5" s="0">
-        <v>0.68376020083333333</v>
+        <v>0.48600499934999997</v>
       </c>
       <c r="N5" s="0">
-        <v>1.5128827652333334</v>
+        <v>1.3892934171833333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.20092898903333334</v>
+        <v>-0.39760818776666668</v>
       </c>
       <c r="B6" s="0">
-        <v>-0.097643229433333312</v>
+        <v>-0.085617780935000026</v>
       </c>
       <c r="C6" s="0">
-        <v>0.22543320698333336</v>
+        <v>0.11629278763333332</v>
       </c>
       <c r="D6" s="0">
-        <v>-0.79523115202999994</v>
+        <v>-0.86176866185000001</v>
       </c>
       <c r="E6" s="0">
-        <v>-1.1658759994833332</v>
+        <v>-1.0071449895666666</v>
       </c>
       <c r="F6" s="0">
-        <v>-0.55997373344000012</v>
+        <v>-0.58090549902999999</v>
       </c>
       <c r="G6" s="0">
-        <v>-0.14125577199333328</v>
+        <v>-0.71774609309333326</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.17205723768333336</v>
+        <v>-0.73527436265000001</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.49362800006333329</v>
+        <v>-0.22052423480333333</v>
       </c>
       <c r="J6" s="0">
-        <v>-1.1146640557</v>
+        <v>-1.0257276454333333</v>
       </c>
       <c r="K6" s="0">
-        <v>-0.42784924833333332</v>
+        <v>-0.01477055459999993</v>
       </c>
       <c r="L6" s="0">
-        <v>-0.4379495802366668</v>
+        <v>-0.47787223948333335</v>
       </c>
       <c r="M6" s="0">
-        <v>-1.0452510391166667</v>
+        <v>-0.98851786029666666</v>
       </c>
       <c r="N6" s="0">
-        <v>-0.82635863256666664</v>
+        <v>0.10766542534500001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.56948788171699993</v>
+        <v>-1.1852303042400001</v>
       </c>
       <c r="B7" s="0">
-        <v>-0.29791004654999997</v>
+        <v>-0.82479976059999993</v>
       </c>
       <c r="C7" s="0">
-        <v>-0.40603762576166669</v>
+        <v>-0.80075912506999991</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.085667385933333284</v>
+        <v>-0.35709857322999999</v>
       </c>
       <c r="E7" s="0">
-        <v>0.091428651685000001</v>
+        <v>-0.48974067204833338</v>
       </c>
       <c r="F7" s="0">
-        <v>0.24496283873333335</v>
+        <v>-0.33351493890000006</v>
       </c>
       <c r="G7" s="0">
-        <v>0.35996867887333328</v>
+        <v>0.061043278596666639</v>
       </c>
       <c r="H7" s="0">
-        <v>0.13166470980166664</v>
+        <v>0.16296812915333334</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.30172342601166663</v>
+        <v>-0.88709962735983328</v>
       </c>
       <c r="J7" s="0">
-        <v>0.43080721331666666</v>
+        <v>0.42375952239999998</v>
       </c>
       <c r="K7" s="0">
-        <v>0.37799045188333336</v>
+        <v>-0.87879634776666671</v>
       </c>
       <c r="L7" s="0">
-        <v>-0.22762107664999998</v>
+        <v>-1.2977798774</v>
       </c>
       <c r="M7" s="0">
-        <v>-0.20995336521666672</v>
+        <v>-0.91777295893333344</v>
       </c>
       <c r="N7" s="0">
-        <v>0.21623145600000004</v>
+        <v>-0.56612170009999996</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>0.12142651494066664</v>
+        <v>-0.1068290247</v>
       </c>
       <c r="B8" s="0">
-        <v>0.050255813033333291</v>
+        <v>-0.48640855442999997</v>
       </c>
       <c r="C8" s="0">
-        <v>0.15457574982000005</v>
+        <v>-0.30467925572333332</v>
       </c>
       <c r="D8" s="0">
-        <v>-0.11461340010000007</v>
+        <v>-0.55524245958333329</v>
       </c>
       <c r="E8" s="0">
-        <v>-0.052988184699999996</v>
+        <v>-0.62687483744999994</v>
       </c>
       <c r="F8" s="0">
-        <v>-0.2150473690833333</v>
+        <v>-0.42305760711666673</v>
       </c>
       <c r="G8" s="0">
-        <v>0.17575408291666667</v>
+        <v>0.53381399283333331</v>
       </c>
       <c r="H8" s="0">
-        <v>0.18429527773000001</v>
+        <v>0.094990716946666665</v>
       </c>
       <c r="I8" s="0">
-        <v>-0.040415543763333339</v>
+        <v>-0.43565054898333333</v>
       </c>
       <c r="J8" s="0">
-        <v>0.5943944914499999</v>
+        <v>0.52679305650000008</v>
       </c>
       <c r="K8" s="0">
-        <v>-0.73423406300500005</v>
+        <v>-0.96124580640000001</v>
       </c>
       <c r="L8" s="0">
-        <v>-0.2905041414366667</v>
+        <v>-0.48445321233333338</v>
       </c>
       <c r="M8" s="0">
-        <v>-0.18264348441666667</v>
+        <v>-0.05497227799999993</v>
       </c>
       <c r="N8" s="0">
-        <v>-0.036043506208333409</v>
+        <v>0.037746142966666674</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>0.55587307116666662</v>
+        <v>0.49678745262999996</v>
       </c>
       <c r="B9" s="0">
-        <v>0.29960293845666669</v>
+        <v>0.34229507080333332</v>
       </c>
       <c r="C9" s="0">
-        <v>0.50117653503333337</v>
+        <v>0.43247000026666671</v>
       </c>
       <c r="D9" s="0">
-        <v>0.56281188958333339</v>
+        <v>0.76719099171333338</v>
       </c>
       <c r="E9" s="0">
-        <v>0.80124795485000011</v>
+        <v>1.318277578</v>
       </c>
       <c r="F9" s="0">
-        <v>0.49247670339333333</v>
+        <v>0.30158052084600007</v>
       </c>
       <c r="G9" s="0">
-        <v>0.52918984401666669</v>
+        <v>-0.57092418394666666</v>
       </c>
       <c r="H9" s="0">
-        <v>0.12779481164666665</v>
+        <v>-0.78174125558333329</v>
       </c>
       <c r="I9" s="0">
-        <v>0.65735816343333331</v>
+        <v>0.5440688879433333</v>
       </c>
       <c r="J9" s="0">
-        <v>1.40033774165</v>
+        <v>-0.084649662199999698</v>
       </c>
       <c r="K9" s="0">
-        <v>0.050281944348333385</v>
+        <v>-0.4297574036516667</v>
       </c>
       <c r="L9" s="0">
-        <v>-0.029940666966666668</v>
+        <v>0.13947828806333329</v>
       </c>
       <c r="M9" s="0">
-        <v>-0.51257497457666668</v>
+        <v>-0.25769499130000001</v>
       </c>
       <c r="N9" s="0">
-        <v>-0.020844607740000007</v>
+        <v>1.1249797051133332</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.17503976494666668</v>
+        <v>0.20083170721666666</v>
       </c>
       <c r="B10" s="0">
-        <v>-0.12358935942983323</v>
+        <v>-0.0078327315666666952</v>
       </c>
       <c r="C10" s="0">
-        <v>-0.21751755101666664</v>
+        <v>0.058584598593333315</v>
       </c>
       <c r="D10" s="0">
-        <v>0.85382445965000009</v>
+        <v>0.23564532483</v>
       </c>
       <c r="E10" s="0">
-        <v>0.92256633128333332</v>
+        <v>0.00096246346666661875</v>
       </c>
       <c r="F10" s="0">
-        <v>-0.17423149803333335</v>
+        <v>-0.061839679666666647</v>
       </c>
       <c r="G10" s="0">
-        <v>-0.15376959909666665</v>
+        <v>0.15887030295000001</v>
       </c>
       <c r="H10" s="0">
-        <v>0.36417195758333337</v>
+        <v>0.14051754377000003</v>
       </c>
       <c r="I10" s="0">
-        <v>0.2982516080833334</v>
+        <v>-0.15285195817133335</v>
       </c>
       <c r="J10" s="0">
-        <v>0.26658381226166661</v>
+        <v>0.071607939549999985</v>
       </c>
       <c r="K10" s="0">
-        <v>0.46853841539999996</v>
+        <v>0.20432310075999999</v>
       </c>
       <c r="L10" s="0">
-        <v>1.0538382573533334</v>
+        <v>0.55551785026999989</v>
       </c>
       <c r="M10" s="0">
-        <v>0.12065366942500001</v>
+        <v>-0.31139521811666665</v>
       </c>
       <c r="N10" s="0">
-        <v>0.28234394299999999</v>
+        <v>-0.38385476131666663</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>0.029562754886666709</v>
+        <v>-0.008780286409333371</v>
       </c>
       <c r="B11" s="0">
-        <v>0.64913236775000005</v>
+        <v>0.74239403134999993</v>
       </c>
       <c r="C11" s="0">
-        <v>1.1318510223333331</v>
+        <v>1.3116883506666666</v>
       </c>
       <c r="D11" s="0">
-        <v>0.71002619696666658</v>
+        <v>0.93163655596166661</v>
       </c>
       <c r="E11" s="0">
-        <v>0.55046879051666664</v>
+        <v>0.99582303529999994</v>
       </c>
       <c r="F11" s="0">
-        <v>0.47614340827666651</v>
+        <v>1.0473839364000002</v>
       </c>
       <c r="G11" s="0">
-        <v>0.056858446200000023</v>
+        <v>0.8639629678966666</v>
       </c>
       <c r="H11" s="0">
-        <v>0.11492967441666661</v>
+        <v>0.74142034705000004</v>
       </c>
       <c r="I11" s="0">
-        <v>0.38079756213333338</v>
+        <v>0.6768387450808333</v>
       </c>
       <c r="J11" s="0">
-        <v>0.4562384850966667</v>
+        <v>0.74310114763333335</v>
       </c>
       <c r="K11" s="0">
-        <v>1.1779366876999999</v>
+        <v>1.2205505145366664</v>
       </c>
       <c r="L11" s="0">
-        <v>1.1077479683833333</v>
+        <v>1.3785349710500001</v>
       </c>
       <c r="M11" s="0">
-        <v>0.78268303496666669</v>
+        <v>0.91431706577999994</v>
       </c>
       <c r="N11" s="0">
-        <v>1.1556158771733331</v>
+        <v>0.52809710736666671</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.106118606485</v>
+        <v>0.23760426128833334</v>
       </c>
       <c r="B12" s="0">
-        <v>0.074382936323333287</v>
+        <v>0.19504131647000003</v>
       </c>
       <c r="C12" s="0">
-        <v>0.23605638948333324</v>
+        <v>0.27992919274183337</v>
       </c>
       <c r="D12" s="0">
-        <v>-0.20193550420666667</v>
+        <v>0.18352322803333335</v>
       </c>
       <c r="E12" s="0">
-        <v>-0.17183214213333331</v>
+        <v>0.28234097705</v>
       </c>
       <c r="F12" s="0">
-        <v>-0.060526250529999999</v>
+        <v>-0.10689199228333336</v>
       </c>
       <c r="G12" s="0">
-        <v>0.017559166886666644</v>
+        <v>-0.16022735839833332</v>
       </c>
       <c r="H12" s="0">
-        <v>0.48582113282666667</v>
+        <v>0.45700010125666662</v>
       </c>
       <c r="I12" s="0">
-        <v>0.46508112501333332</v>
+        <v>0.95867359485333326</v>
       </c>
       <c r="J12" s="0">
-        <v>-0.33954987241666662</v>
+        <v>-0.2572886439</v>
       </c>
       <c r="K12" s="0">
-        <v>-0.31957305192999996</v>
+        <v>-0.67903045423333341</v>
       </c>
       <c r="L12" s="0">
-        <v>0.28971126994166674</v>
+        <v>0.15027928414999997</v>
       </c>
       <c r="M12" s="0">
-        <v>0.0029773181566666862</v>
+        <v>0.033971047599999998</v>
       </c>
       <c r="N12" s="0">
-        <v>0.25196634350000002</v>
+        <v>0.27846535920000004</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>0.34868360438666668</v>
+        <v>1.0133406782500001</v>
       </c>
       <c r="B13" s="0">
-        <v>0.15897969013333332</v>
+        <v>1.1716971371166667</v>
       </c>
       <c r="C13" s="0">
-        <v>-0.052361621631666661</v>
+        <v>1.1802645971066665</v>
       </c>
       <c r="D13" s="0">
-        <v>0.07357296215833331</v>
+        <v>0.76419523500999997</v>
       </c>
       <c r="E13" s="0">
-        <v>0.24603046858000008</v>
+        <v>0.89041618510833331</v>
       </c>
       <c r="F13" s="0">
-        <v>0.68710480108333338</v>
+        <v>0.63570949903333329</v>
       </c>
       <c r="G13" s="0">
-        <v>-0.00097144945499999871</v>
+        <v>0.67641289383000003</v>
       </c>
       <c r="H13" s="0">
-        <v>-0.0536447829666667</v>
+        <v>0.73114867604333322</v>
       </c>
       <c r="I13" s="0">
-        <v>0.41600675868333331</v>
+        <v>0.73554241765000006</v>
       </c>
       <c r="J13" s="0">
-        <v>-0.99353513516666669</v>
+        <v>0.83714145075000013</v>
       </c>
       <c r="K13" s="0">
-        <v>-0.025922693488333315</v>
+        <v>0.84667350447566669</v>
       </c>
       <c r="L13" s="0">
-        <v>0.39694843931666668</v>
+        <v>0.99885304480999992</v>
       </c>
       <c r="M13" s="0">
-        <v>0.17788388779333336</v>
+        <v>0.95713038591666677</v>
       </c>
       <c r="N13" s="0">
-        <v>0.52057417005000006</v>
+        <v>1.3678465312100001</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.2195892263</v>
+        <v>0.029155728400000018</v>
       </c>
       <c r="B14" s="0">
-        <v>0.92189636008333331</v>
+        <v>-0.33937920623333334</v>
       </c>
       <c r="C14" s="0">
-        <v>0.58271228103333328</v>
+        <v>0.21371935165</v>
       </c>
       <c r="D14" s="0">
-        <v>0.45495288810000001</v>
+        <v>0.5689332012566668</v>
       </c>
       <c r="E14" s="0">
-        <v>0.45646121363333325</v>
+        <v>0.22426946611666668</v>
       </c>
       <c r="F14" s="0">
-        <v>0.21024056039166664</v>
+        <v>0.086916582620000016</v>
       </c>
       <c r="G14" s="0">
-        <v>-0.24682856996666666</v>
+        <v>-0.12465734305000004</v>
       </c>
       <c r="H14" s="0">
-        <v>-0.054994039983333298</v>
+        <v>0.13000588694999998</v>
       </c>
       <c r="I14" s="0">
-        <v>0.43320707103333334</v>
+        <v>0.47540883956333335</v>
       </c>
       <c r="J14" s="0">
-        <v>0.37381841551999995</v>
+        <v>-0.11048061751666666</v>
       </c>
       <c r="K14" s="0">
-        <v>0.11594347685833331</v>
+        <v>-0.46928690011999991</v>
       </c>
       <c r="L14" s="0">
-        <v>0.18946015635000002</v>
+        <v>0.25380091815333333</v>
       </c>
       <c r="M14" s="0">
-        <v>0.38910158150000007</v>
+        <v>0.27502195716666666</v>
       </c>
       <c r="N14" s="0">
-        <v>0.66006046148333331</v>
+        <v>0.0068387690233333298</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.27842089733333331</v>
+        <v>-0.28976546560499999</v>
       </c>
       <c r="B15" s="0">
-        <v>-0.019354289300000049</v>
+        <v>0.090899667283333374</v>
       </c>
       <c r="C15" s="0">
-        <v>0.25162362064333332</v>
+        <v>-0.029823568666666689</v>
       </c>
       <c r="D15" s="0">
-        <v>0.60993080885000006</v>
+        <v>-0.24128871923833339</v>
       </c>
       <c r="E15" s="0">
-        <v>0.8816933566166667</v>
+        <v>0.16270305365000004</v>
       </c>
       <c r="F15" s="0">
-        <v>0.48080521525000008</v>
+        <v>0.29519310658333336</v>
       </c>
       <c r="G15" s="0">
-        <v>0.62747383412999991</v>
+        <v>0.7099144587166667</v>
       </c>
       <c r="H15" s="0">
-        <v>0.20044461423666665</v>
+        <v>0.52987478033333324</v>
       </c>
       <c r="I15" s="0">
-        <v>0.47714475137833334</v>
+        <v>-0.14416405883166666</v>
       </c>
       <c r="J15" s="0">
-        <v>0.39132720451166669</v>
+        <v>0.39379968725000003</v>
       </c>
       <c r="K15" s="0">
-        <v>0.47266492879999994</v>
+        <v>0.055956515783333272</v>
       </c>
       <c r="L15" s="0">
-        <v>0.39192744373833338</v>
+        <v>-0.13280236675000012</v>
       </c>
       <c r="M15" s="0">
-        <v>1.2482755264500001</v>
+        <v>0.26363818210000001</v>
       </c>
       <c r="N15" s="0">
-        <v>0.84416032607666658</v>
+        <v>0.16720295503333338</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>0.012390193049999998</v>
+        <v>-0.14353823563166668</v>
       </c>
       <c r="B16" s="0">
-        <v>0.17932394213333336</v>
+        <v>0.078752278671666703</v>
       </c>
       <c r="C16" s="0">
-        <v>0.072250404394000017</v>
+        <v>-0.14056636071833334</v>
       </c>
       <c r="D16" s="0">
-        <v>0.12355949646666667</v>
+        <v>-0.29334329376999996</v>
       </c>
       <c r="E16" s="0">
-        <v>0.34430721505</v>
+        <v>-0.10461769801666662</v>
       </c>
       <c r="F16" s="0">
-        <v>-0.066230699493333323</v>
+        <v>-0.11039479799333335</v>
       </c>
       <c r="G16" s="0">
-        <v>-0.13859200409333333</v>
+        <v>-0.021789377350000028</v>
       </c>
       <c r="H16" s="0">
-        <v>-0.042470351186666665</v>
+        <v>-0.2311939119333333</v>
       </c>
       <c r="I16" s="0">
-        <v>0.26099940907666663</v>
+        <v>-0.13754617425666665</v>
       </c>
       <c r="J16" s="0">
-        <v>0.074319077916666698</v>
+        <v>0.0016051055666667091</v>
       </c>
       <c r="K16" s="0">
-        <v>0.14182557497000001</v>
+        <v>0.026470237073333402</v>
       </c>
       <c r="L16" s="0">
-        <v>-0.29120371285000002</v>
+        <v>-0.59587255072666667</v>
       </c>
       <c r="M16" s="0">
-        <v>-0.085979856199999968</v>
+        <v>-0.27081921410666671</v>
       </c>
       <c r="N16" s="0">
-        <v>0.41997575808333343</v>
+        <v>0.09049800395999999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.33814176928166662</v>
+        <v>-0.26428252388333334</v>
       </c>
       <c r="B17" s="0">
-        <v>-0.76233538369999998</v>
+        <v>-0.32754027049666667</v>
       </c>
       <c r="C17" s="0">
-        <v>-0.64729151847999999</v>
+        <v>0.0099633204999999836</v>
       </c>
       <c r="D17" s="0">
-        <v>-0.71046264509333334</v>
+        <v>0.16669843709999999</v>
       </c>
       <c r="E17" s="0">
-        <v>-0.034360633943333385</v>
+        <v>0.15666989588333335</v>
       </c>
       <c r="F17" s="0">
-        <v>0.0078377320149999596</v>
+        <v>0.0065458240633333581</v>
       </c>
       <c r="G17" s="0">
-        <v>-0.049078289383333334</v>
+        <v>-0.28722640417666667</v>
       </c>
       <c r="H17" s="0">
-        <v>-0.44513090007166667</v>
+        <v>-0.5967308204166667</v>
       </c>
       <c r="I17" s="0">
-        <v>-0.84607767426666669</v>
+        <v>-0.3852605231366667</v>
       </c>
       <c r="J17" s="0">
-        <v>-1.0452703563733334</v>
+        <v>-0.85414740671666667</v>
       </c>
       <c r="K17" s="0">
-        <v>-0.82217722917833336</v>
+        <v>0.044911147573333365</v>
       </c>
       <c r="L17" s="0">
-        <v>-0.62115433726666669</v>
+        <v>-0.57618666003666674</v>
       </c>
       <c r="M17" s="0">
-        <v>-0.023683921113333367</v>
+        <v>-0.36933440941666662</v>
       </c>
       <c r="N17" s="0">
-        <v>-0.94579602267166663</v>
+        <v>-1.0721190213333334</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.53127305487333332</v>
+        <v>-0.088234786499999995</v>
       </c>
       <c r="B18" s="0">
-        <v>-0.34601840206666667</v>
+        <v>-0.21576441113333339</v>
       </c>
       <c r="C18" s="0">
-        <v>-0.19892686352666664</v>
+        <v>0.27704523859999997</v>
       </c>
       <c r="D18" s="0">
-        <v>0.017764692200000001</v>
+        <v>0.21672758729999997</v>
       </c>
       <c r="E18" s="0">
-        <v>-0.00076273556666664466</v>
+        <v>0.65492175697666666</v>
       </c>
       <c r="F18" s="0">
-        <v>-0.23171589287666669</v>
+        <v>0.10536115491333331</v>
       </c>
       <c r="G18" s="0">
-        <v>-0.31897059829666669</v>
+        <v>-0.31220379706666668</v>
       </c>
       <c r="H18" s="0">
-        <v>-0.196226759178</v>
+        <v>-0.32990892126000004</v>
       </c>
       <c r="I18" s="0">
-        <v>0.25212822765666665</v>
+        <v>-0.14528807345666661</v>
       </c>
       <c r="J18" s="0">
-        <v>0.1712148476</v>
+        <v>-0.2604948765766667</v>
       </c>
       <c r="K18" s="0">
-        <v>-0.081237909100000033</v>
+        <v>0.28393472004999998</v>
       </c>
       <c r="L18" s="0">
-        <v>-0.80800481059999996</v>
+        <v>-0.8141420855</v>
       </c>
       <c r="M18" s="0">
-        <v>-0.059540157459999965</v>
+        <v>-1.3404253371500001</v>
       </c>
       <c r="N18" s="0">
-        <v>-0.010993964766666753</v>
+        <v>-0.50616982481666672</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.48494966309333332</v>
+        <v>-0.11004771014000002</v>
       </c>
       <c r="B19" s="0">
-        <v>0.30821896710000002</v>
+        <v>0.25802007916999997</v>
       </c>
       <c r="C19" s="0">
-        <v>0.28364465244166664</v>
+        <v>0.084481388566666676</v>
       </c>
       <c r="D19" s="0">
-        <v>0.27308358993333331</v>
+        <v>0.5913919241333333</v>
       </c>
       <c r="E19" s="0">
-        <v>-0.2963027455833333</v>
+        <v>0.10677577316333331</v>
       </c>
       <c r="F19" s="0">
-        <v>-0.1074686862</v>
+        <v>0.035143676766666687</v>
       </c>
       <c r="G19" s="0">
-        <v>-0.34714472016666664</v>
+        <v>-0.49200280937999996</v>
       </c>
       <c r="H19" s="0">
-        <v>-0.058240188200000001</v>
+        <v>-0.57495112673333337</v>
       </c>
       <c r="I19" s="0">
-        <v>0.1400451828</v>
+        <v>0.37292041346666671</v>
       </c>
       <c r="J19" s="0">
-        <v>-1.4030090667333333</v>
+        <v>-1.0118914308333333</v>
       </c>
       <c r="K19" s="0">
-        <v>-0.033881469499999928</v>
+        <v>0.11656647340000001</v>
       </c>
       <c r="L19" s="0">
-        <v>0.49729247933333331</v>
+        <v>-0.36976234951999998</v>
       </c>
       <c r="M19" s="0">
-        <v>0.0086625266066666581</v>
+        <v>0.93813614749666663</v>
       </c>
       <c r="N19" s="0">
-        <v>-0.37382421300999996</v>
+        <v>0.32293528766666668</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>0.36094543725000006</v>
+        <v>0.64604896271333334</v>
       </c>
       <c r="B20" s="0">
-        <v>0.15717663000333332</v>
+        <v>0.37667879403333332</v>
       </c>
       <c r="C20" s="0">
-        <v>0.60523825051666669</v>
+        <v>0.48875589225999999</v>
       </c>
       <c r="D20" s="0">
-        <v>0.094615370283333333</v>
+        <v>0.043550502656666663</v>
       </c>
       <c r="E20" s="0">
-        <v>0.19652312925000001</v>
+        <v>0.22340044590000002</v>
       </c>
       <c r="F20" s="0">
-        <v>0.4567673695331666</v>
+        <v>0.38103119526333334</v>
       </c>
       <c r="G20" s="0">
-        <v>0.35778709821333332</v>
+        <v>0.23953632953333334</v>
       </c>
       <c r="H20" s="0">
-        <v>0.3664898394233333</v>
+        <v>-0.16390435176666662</v>
       </c>
       <c r="I20" s="0">
-        <v>0.36804915488333334</v>
+        <v>0.37251095180000005</v>
       </c>
       <c r="J20" s="0">
-        <v>1.1065162787</v>
+        <v>0.49988569395999999</v>
       </c>
       <c r="K20" s="0">
-        <v>0.0060858627900000073</v>
+        <v>0.28509423863666661</v>
       </c>
       <c r="L20" s="0">
-        <v>0.019843577786666622</v>
+        <v>-0.25848657701666666</v>
       </c>
       <c r="M20" s="0">
-        <v>0.11350544130000007</v>
+        <v>-0.18794973721666666</v>
       </c>
       <c r="N20" s="0">
-        <v>0.33288436114999997</v>
+        <v>0.1445339541166667</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>0.18276481450166662</v>
+        <v>0.3222654177</v>
       </c>
       <c r="B21" s="0">
-        <v>-0.17016955983333329</v>
+        <v>0.048137901943333339</v>
       </c>
       <c r="C21" s="0">
-        <v>-0.030278989333333339</v>
+        <v>0.012200184686666643</v>
       </c>
       <c r="D21" s="0">
-        <v>0.38066568786833332</v>
+        <v>0.38833046339333332</v>
       </c>
       <c r="E21" s="0">
-        <v>0.26390181944999996</v>
+        <v>0.40613343508333333</v>
       </c>
       <c r="F21" s="0">
-        <v>0.29453212348166669</v>
+        <v>0.38494016820000004</v>
       </c>
       <c r="G21" s="0">
-        <v>-0.28441228472000002</v>
+        <v>0.12059365480000003</v>
       </c>
       <c r="H21" s="0">
-        <v>-0.14932034730666666</v>
+        <v>0.2885819411433333</v>
       </c>
       <c r="I21" s="0">
-        <v>0.038550098049999981</v>
+        <v>0.23231048809999999</v>
       </c>
       <c r="J21" s="0">
-        <v>0.39690169111666662</v>
+        <v>0.93301154236666661</v>
       </c>
       <c r="K21" s="0">
-        <v>-0.037622825633333301</v>
+        <v>-0.0027429540333332447</v>
       </c>
       <c r="L21" s="0">
-        <v>0.0036087668366666659</v>
+        <v>-0.034515976120000014</v>
       </c>
       <c r="M21" s="0">
-        <v>-0.064807361893333318</v>
+        <v>-0.1468798457833333</v>
       </c>
       <c r="N21" s="0">
-        <v>1.0621365323499998</v>
+        <v>0.12039870609999995</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.23431890040000003</v>
+        <v>-0.29056115942999999</v>
       </c>
       <c r="B22" s="0">
-        <v>-0.56702771559999998</v>
+        <v>-0.14286762083333332</v>
       </c>
       <c r="C22" s="0">
-        <v>-0.034656901289999986</v>
+        <v>0.038161567833333299</v>
       </c>
       <c r="D22" s="0">
-        <v>-0.48765853983333329</v>
+        <v>-0.28471795532666666</v>
       </c>
       <c r="E22" s="0">
-        <v>-0.39054695540000006</v>
+        <v>-0.46860664937333335</v>
       </c>
       <c r="F22" s="0">
-        <v>0.65243560512999998</v>
+        <v>0.48569643431999998</v>
       </c>
       <c r="G22" s="0">
-        <v>0.70550694188666663</v>
+        <v>0.56957966127366666</v>
       </c>
       <c r="H22" s="0">
-        <v>0.12451233030000002</v>
+        <v>0.20203681714333332</v>
       </c>
       <c r="I22" s="0">
-        <v>0.017482006093333308</v>
+        <v>0.10425142066666668</v>
       </c>
       <c r="J22" s="0">
-        <v>-0.60863234669999999</v>
+        <v>-0.71095812829666671</v>
       </c>
       <c r="K22" s="0">
-        <v>0.66949134589000003</v>
+        <v>0.18892250415333334</v>
       </c>
       <c r="L22" s="0">
-        <v>0.66893596116666676</v>
+        <v>-0.024601536333333333</v>
       </c>
       <c r="M22" s="0">
-        <v>0.3369115517266667</v>
+        <v>0.11423210706666666</v>
       </c>
       <c r="N22" s="0">
-        <v>-0.48944472952333329</v>
+        <v>0.17548517249999998</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.82167568358499998</v>
+        <v>-0.37722851204999996</v>
       </c>
       <c r="B23" s="0">
-        <v>-1.1790185580499999</v>
+        <v>-1.054850586975</v>
       </c>
       <c r="C23" s="0">
-        <v>-0.95665385851499996</v>
+        <v>-0.47104815304999992</v>
       </c>
       <c r="D23" s="0">
-        <v>-0.69218879760000007</v>
+        <v>0.167037502945</v>
       </c>
       <c r="E23" s="0">
-        <v>-0.23665160676999994</v>
+        <v>0.10044010610999998</v>
       </c>
       <c r="F23" s="0">
-        <v>-0.95881496275000011</v>
+        <v>0.08684765709999992</v>
       </c>
       <c r="G23" s="0">
-        <v>-0.82343012704999996</v>
+        <v>0.44412407394999998</v>
       </c>
       <c r="H23" s="0">
-        <v>-0.7522178720499999</v>
+        <v>0.15436374764999997</v>
       </c>
       <c r="I23" s="0">
-        <v>-0.695163325</v>
+        <v>-0.34735497095000001</v>
       </c>
       <c r="J23" s="0">
-        <v>-1.3457881271499998</v>
+        <v>-0.52173046679999979</v>
       </c>
       <c r="K23" s="0">
-        <v>-0.73396608255000007</v>
+        <v>-0.6017670529500001</v>
       </c>
       <c r="L23" s="0">
-        <v>-0.75307726115750007</v>
+        <v>-0.21720577125000001</v>
       </c>
       <c r="M23" s="0">
-        <v>-0.89040685050000001</v>
+        <v>0.55088863370000007</v>
       </c>
       <c r="N23" s="0">
-        <v>-1.2389498343000001</v>
+        <v>-0.59876922725000015</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>0.022918192456666694</v>
+        <v>0.071012296318333307</v>
       </c>
       <c r="B24" s="0">
-        <v>0.71288265309999987</v>
+        <v>1.1171305833333334</v>
       </c>
       <c r="C24" s="0">
-        <v>0.22248443174166671</v>
+        <v>1.2171792086499997</v>
       </c>
       <c r="D24" s="0">
-        <v>-0.077750981866666666</v>
+        <v>0.10293346568333334</v>
       </c>
       <c r="E24" s="0">
-        <v>0.079148218800000031</v>
+        <v>0.35420033723333333</v>
       </c>
       <c r="F24" s="0">
-        <v>-0.27507682217666668</v>
+        <v>0.078202584250000012</v>
       </c>
       <c r="G24" s="0">
-        <v>-0.545882134405</v>
+        <v>0.058993754671666676</v>
       </c>
       <c r="H24" s="0">
-        <v>-0.21673200771666665</v>
+        <v>0.059705275173333322</v>
       </c>
       <c r="I24" s="0">
-        <v>0.83049233878333328</v>
+        <v>0.58967174394999999</v>
       </c>
       <c r="J24" s="0">
-        <v>-0.65851993881666671</v>
+        <v>-0.40164761666666671</v>
       </c>
       <c r="K24" s="0">
-        <v>0.71358041950666662</v>
+        <v>1.3547201436</v>
       </c>
       <c r="L24" s="0">
-        <v>0.26956466006666668</v>
+        <v>0.4053123532166667</v>
       </c>
       <c r="M24" s="0">
-        <v>0.35478450846666665</v>
+        <v>0.68644499741666665</v>
       </c>
       <c r="N24" s="0">
-        <v>0.43016587067999995</v>
+        <v>0.7089177011333333</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>0.10403874091166668</v>
+        <v>0.10484316466666668</v>
       </c>
       <c r="B25" s="0">
-        <v>0.75229340601666661</v>
+        <v>0.42420217983166664</v>
       </c>
       <c r="C25" s="0">
-        <v>0.56129659244999996</v>
+        <v>0.62754424063000003</v>
       </c>
       <c r="D25" s="0">
-        <v>0.090299816718000012</v>
+        <v>-0.40002227009166663</v>
       </c>
       <c r="E25" s="0">
-        <v>0.10468311021000001</v>
+        <v>-0.54338901281666674</v>
       </c>
       <c r="F25" s="0">
-        <v>0.0094539322466666853</v>
+        <v>0.26980713584000005</v>
       </c>
       <c r="G25" s="0">
-        <v>0.058767196630000004</v>
+        <v>0.33678950336666669</v>
       </c>
       <c r="H25" s="0">
-        <v>0.016188074324999996</v>
+        <v>0.12332444751333338</v>
       </c>
       <c r="I25" s="0">
-        <v>0.010138534850000033</v>
+        <v>-0.61881769894000005</v>
       </c>
       <c r="J25" s="0">
-        <v>0.27642435360000001</v>
+        <v>0.16087607899333334</v>
       </c>
       <c r="K25" s="0">
-        <v>0.55122618464999995</v>
+        <v>0.37308547261666658</v>
       </c>
       <c r="L25" s="0">
-        <v>0.34990139819999999</v>
+        <v>0.23232726104200002</v>
       </c>
       <c r="M25" s="0">
-        <v>-0.055379544326666641</v>
+        <v>0.36274531348666672</v>
       </c>
       <c r="N25" s="0">
-        <v>-0.051107001128333329</v>
+        <v>-0.22496011209000003</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.258755845333</v>
+        <v>0.21857637891999998</v>
       </c>
       <c r="B26" s="0">
-        <v>-0.26828032200500002</v>
+        <v>-0.014252640519999998</v>
       </c>
       <c r="C26" s="0">
-        <v>-0.48752230862085</v>
+        <v>0.15925035007499999</v>
       </c>
       <c r="D26" s="0">
-        <v>0.090958977590000004</v>
+        <v>-0.57583307854999999</v>
       </c>
       <c r="E26" s="0">
-        <v>-0.64759124369999999</v>
+        <v>-0.53816728975000006</v>
       </c>
       <c r="F26" s="0">
-        <v>-1.2106119818600001</v>
+        <v>-0.2946449458</v>
       </c>
       <c r="G26" s="0">
-        <v>-1.52012807335</v>
+        <v>0.20432715093000001</v>
       </c>
       <c r="H26" s="0">
-        <v>-1.1214419840500001</v>
+        <v>0.35117492919999993</v>
       </c>
       <c r="I26" s="0">
-        <v>-1.66861569775</v>
+        <v>-0.23915359410000003</v>
       </c>
       <c r="J26" s="0">
-        <v>-1.1711633969999999</v>
+        <v>-0.13649009412999999</v>
       </c>
       <c r="K26" s="0">
-        <v>0.056982535399999978</v>
+        <v>0.72739652911999997</v>
       </c>
       <c r="L26" s="0">
-        <v>-0.78690549605000004</v>
+        <v>0.75536674713999996</v>
       </c>
       <c r="M26" s="0">
-        <v>-0.84050979168999995</v>
+        <v>0.75517603300000002</v>
       </c>
       <c r="N26" s="0">
-        <v>-0.58864919380000003</v>
+        <v>0.43202635257599997</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>0.028561551516666672</v>
+        <v>-0.0090032762666666377</v>
       </c>
       <c r="B27" s="0">
-        <v>0.37040845998833338</v>
+        <v>0.14477088027999999</v>
       </c>
       <c r="C27" s="0">
-        <v>0.63471406331166658</v>
+        <v>0.0049571659683333158</v>
       </c>
       <c r="D27" s="0">
-        <v>0.19722938693166669</v>
+        <v>-0.95575277110000001</v>
       </c>
       <c r="E27" s="0">
-        <v>0.18201869995499997</v>
+        <v>-0.8757968661333333</v>
       </c>
       <c r="F27" s="0">
-        <v>0.015139549599999982</v>
+        <v>-0.51380207443300008</v>
       </c>
       <c r="G27" s="0">
-        <v>-0.38019820057499998</v>
+        <v>-0.24666518500333334</v>
       </c>
       <c r="H27" s="0">
-        <v>0.18827243598666671</v>
+        <v>-0.2711417404</v>
       </c>
       <c r="I27" s="0">
-        <v>0.42556904436333332</v>
+        <v>-0.54714860363333329</v>
       </c>
       <c r="J27" s="0">
-        <v>0.52491318166666667</v>
+        <v>0.4929259644916667</v>
       </c>
       <c r="K27" s="0">
-        <v>-0.045758565480000013</v>
+        <v>-0.84795449898666675</v>
       </c>
       <c r="L27" s="0">
-        <v>0.20985767229666663</v>
+        <v>-0.51317119542833334</v>
       </c>
       <c r="M27" s="0">
-        <v>0.57210080113333328</v>
+        <v>-0.092873170833333379</v>
       </c>
       <c r="N27" s="0">
-        <v>1.1873234766833334</v>
+        <v>0.10282881825000001</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.6192803232966666</v>
+        <v>-0.16419693229833332</v>
       </c>
       <c r="B28" s="0">
-        <v>-0.71682027068166665</v>
+        <v>-0.14535240291833332</v>
       </c>
       <c r="C28" s="0">
-        <v>0.11974260220999998</v>
+        <v>0.42048883753166666</v>
       </c>
       <c r="D28" s="0">
-        <v>0.19151322295333328</v>
+        <v>0.46209290828333338</v>
       </c>
       <c r="E28" s="0">
-        <v>0.10125570464400008</v>
+        <v>0.2610584630833333</v>
       </c>
       <c r="F28" s="0">
-        <v>0.12229106735000003</v>
+        <v>-0.13345141705333333</v>
       </c>
       <c r="G28" s="0">
-        <v>-0.26027601776666659</v>
+        <v>-0.34227676643333327</v>
       </c>
       <c r="H28" s="0">
-        <v>0.081791983759999992</v>
+        <v>-0.1195930077983333</v>
       </c>
       <c r="I28" s="0">
-        <v>-0.18960041545166667</v>
+        <v>-0.13650355778333334</v>
       </c>
       <c r="J28" s="0">
-        <v>0.60360263016666671</v>
+        <v>-0.39216482439666661</v>
       </c>
       <c r="K28" s="0">
-        <v>-0.43709517331666659</v>
+        <v>0.075505691383333351</v>
       </c>
       <c r="L28" s="0">
-        <v>-0.81705006426666671</v>
+        <v>-0.31352124298219997</v>
       </c>
       <c r="M28" s="0">
-        <v>-0.61657062670666674</v>
+        <v>-0.18004938609999999</v>
       </c>
       <c r="N28" s="0">
-        <v>-0.62781687721666668</v>
+        <v>-0.65304382198333333</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>1.0882719215333334</v>
+        <v>0.40575048191666668</v>
       </c>
       <c r="B29" s="0">
-        <v>1.2758633520666667</v>
+        <v>0.52861184906666658</v>
       </c>
       <c r="C29" s="0">
-        <v>0.89957141331666668</v>
+        <v>0.22897109874999999</v>
       </c>
       <c r="D29" s="0">
-        <v>0.14738608859999999</v>
+        <v>-0.26672506517333339</v>
       </c>
       <c r="E29" s="0">
-        <v>0.43538160265666664</v>
+        <v>0.084619309133333265</v>
       </c>
       <c r="F29" s="0">
-        <v>0.83852287040666673</v>
+        <v>0.3225371527333335</v>
       </c>
       <c r="G29" s="0">
-        <v>0.93260624695000005</v>
+        <v>0.47615029321666663</v>
       </c>
       <c r="H29" s="0">
-        <v>1.2399454366833331</v>
+        <v>0.65929490320999995</v>
       </c>
       <c r="I29" s="0">
-        <v>1.0062944868333332</v>
+        <v>0.5251336253833333</v>
       </c>
       <c r="J29" s="0">
-        <v>1.3806733101071669</v>
+        <v>1.0500000755499999</v>
       </c>
       <c r="K29" s="0">
-        <v>0.68327569958333334</v>
+        <v>0.095617957266666664</v>
       </c>
       <c r="L29" s="0">
-        <v>0.83823234140000003</v>
+        <v>0.24633849840333333</v>
       </c>
       <c r="M29" s="0">
-        <v>-0.40731371021666662</v>
+        <v>-0.98245840251666672</v>
       </c>
       <c r="N29" s="0">
-        <v>1.0216686186833335</v>
+        <v>0.35693244628333343</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.041640679314999998</v>
+        <v>-0.19282722453333331</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.34802411048333332</v>
+        <v>-0.010840832816666646</v>
       </c>
       <c r="C30" s="0">
-        <v>-0.097421201230999996</v>
+        <v>0.30994059416666664</v>
       </c>
       <c r="D30" s="0">
-        <v>0.3286158853533333</v>
+        <v>0.12761237948333334</v>
       </c>
       <c r="E30" s="0">
-        <v>-0.042523291550000009</v>
+        <v>-0.1342137442766666</v>
       </c>
       <c r="F30" s="0">
-        <v>0.074566396164999993</v>
+        <v>0.17478039148333332</v>
       </c>
       <c r="G30" s="0">
-        <v>0.10728416807499999</v>
+        <v>0.076572034090000005</v>
       </c>
       <c r="H30" s="0">
-        <v>0.046376948466666706</v>
+        <v>-0.034368030215000005</v>
       </c>
       <c r="I30" s="0">
-        <v>-0.066632211024999999</v>
+        <v>0.047176334083333354</v>
       </c>
       <c r="J30" s="0">
-        <v>-0.68522664873333339</v>
+        <v>-0.21340750930000002</v>
       </c>
       <c r="K30" s="0">
-        <v>-0.89668531156666664</v>
+        <v>-0.45169441438333341</v>
       </c>
       <c r="L30" s="0">
-        <v>-0.55779653506666671</v>
+        <v>-0.50708977350999995</v>
       </c>
       <c r="M30" s="0">
-        <v>-0.39155289241666669</v>
+        <v>0.054993370684999987</v>
       </c>
       <c r="N30" s="0">
-        <v>0.20023831461899999</v>
+        <v>0.28344589966666667</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.32764314785999998</v>
+        <v>-0.53084684260000004</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.11283296329999999</v>
+        <v>-0.08111045440833331</v>
       </c>
       <c r="C31" s="0">
-        <v>0.03436555575000004</v>
+        <v>-0.012817388216666649</v>
       </c>
       <c r="D31" s="0">
-        <v>-0.042729435349999983</v>
+        <v>-0.34240139503333333</v>
       </c>
       <c r="E31" s="0">
-        <v>-0.72164876427999991</v>
+        <v>-1.0984878487833334</v>
       </c>
       <c r="F31" s="0">
-        <v>-0.69340470841333335</v>
+        <v>-0.81726936004999995</v>
       </c>
       <c r="G31" s="0">
-        <v>-0.50286383128666667</v>
+        <v>-0.32354331586666663</v>
       </c>
       <c r="H31" s="0">
-        <v>-0.55729049921533336</v>
+        <v>-0.63182363183666668</v>
       </c>
       <c r="I31" s="0">
-        <v>-0.63758930532666669</v>
+        <v>-0.67982109755333331</v>
       </c>
       <c r="J31" s="0">
-        <v>-0.46403076344999994</v>
+        <v>-0.79024459480000009</v>
       </c>
       <c r="K31" s="0">
-        <v>-0.88119792654333329</v>
+        <v>-0.60944920487999998</v>
       </c>
       <c r="L31" s="0">
-        <v>-0.56273331063333332</v>
+        <v>-0.52049932698333334</v>
       </c>
       <c r="M31" s="0">
-        <v>-0.95128970530000001</v>
+        <v>-0.27796738529999998</v>
       </c>
       <c r="N31" s="0">
-        <v>-0.37125474314999996</v>
+        <v>-0.27601842881666672</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.023760334783333337</v>
+        <v>0.43516055118999997</v>
       </c>
       <c r="B32" s="0">
-        <v>-0.23870171981333332</v>
+        <v>0.60486066879</v>
       </c>
       <c r="C32" s="0">
-        <v>0.01304689106666666</v>
+        <v>0.13971840147666667</v>
       </c>
       <c r="D32" s="0">
-        <v>0.03764503579666667</v>
+        <v>0.17075054015333335</v>
       </c>
       <c r="E32" s="0">
-        <v>0.018816518699999979</v>
+        <v>0.45389919980333332</v>
       </c>
       <c r="F32" s="0">
-        <v>0.074512841839999983</v>
+        <v>0.011662660950000008</v>
       </c>
       <c r="G32" s="0">
-        <v>0.021124575766666653</v>
+        <v>0.097388882403333363</v>
       </c>
       <c r="H32" s="0">
-        <v>-0.082458525940000013</v>
+        <v>0.24860731887333337</v>
       </c>
       <c r="I32" s="0">
-        <v>-0.00099785343333336218</v>
+        <v>0.51803874802999994</v>
       </c>
       <c r="J32" s="0">
-        <v>-0.28336867606666666</v>
+        <v>0.021382271456666671</v>
       </c>
       <c r="K32" s="0">
-        <v>-0.64811062965333333</v>
+        <v>-0.26444643716666666</v>
       </c>
       <c r="L32" s="0">
-        <v>-0.45812365363833335</v>
+        <v>0.37297881628333335</v>
       </c>
       <c r="M32" s="0">
-        <v>-0.78752095135</v>
+        <v>-0.16439958338333338</v>
       </c>
       <c r="N32" s="0">
-        <v>-0.52079429291333335</v>
+        <v>0.4046217375233333</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.074548068666666634</v>
+        <v>0.5227404881833333</v>
       </c>
       <c r="B33" s="0">
-        <v>0.36207956399333335</v>
+        <v>0.76928472041666662</v>
       </c>
       <c r="C33" s="0">
-        <v>0.2969888517</v>
+        <v>0.67858297254999989</v>
       </c>
       <c r="D33" s="0">
-        <v>0.031487007842333367</v>
+        <v>0.20565971838333336</v>
       </c>
       <c r="E33" s="0">
-        <v>0.10725902380000005</v>
+        <v>0.55896325645333322</v>
       </c>
       <c r="F33" s="0">
-        <v>0.17414252416666665</v>
+        <v>0.32620372698333333</v>
       </c>
       <c r="G33" s="0">
-        <v>-0.09253886582666665</v>
+        <v>-0.15897013125166665</v>
       </c>
       <c r="H33" s="0">
-        <v>-0.60607569447333332</v>
+        <v>-0.59841555933666668</v>
       </c>
       <c r="I33" s="0">
-        <v>-0.33345530931666661</v>
+        <v>-0.16859921024999999</v>
       </c>
       <c r="J33" s="0">
-        <v>-0.70091286941666664</v>
+        <v>-1.4495397248000002</v>
       </c>
       <c r="K33" s="0">
-        <v>0.25351383116666665</v>
+        <v>0.80525976830000001</v>
       </c>
       <c r="L33" s="0">
-        <v>0.20271989018333333</v>
+        <v>0.88534372598333344</v>
       </c>
       <c r="M33" s="0">
-        <v>0.041448080768333367</v>
+        <v>0.96416393864333338</v>
       </c>
       <c r="N33" s="0">
-        <v>0.59453573137133331</v>
+        <v>0.33995330447333327</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="0">
-        <v>0.56596082576100004</v>
+        <v>0.48069648450000002</v>
       </c>
       <c r="B34" s="0">
-        <v>-0.62511305593333333</v>
+        <v>-0.67936644646666666</v>
       </c>
       <c r="C34" s="0">
-        <v>0.036831945833333324</v>
+        <v>0.16356151522000001</v>
       </c>
       <c r="D34" s="0">
-        <v>0.86552902750000005</v>
+        <v>0.85133621943333337</v>
       </c>
       <c r="E34" s="0">
-        <v>0.86625618849666663</v>
+        <v>0.55168261527666673</v>
       </c>
       <c r="F34" s="0">
-        <v>0.36190297419333334</v>
+        <v>0.32272039474999997</v>
       </c>
       <c r="G34" s="0">
-        <v>0.73399883383333331</v>
+        <v>0.7228148386333334</v>
       </c>
       <c r="H34" s="0">
-        <v>0.25380053970000005</v>
+        <v>0.46695444906666667</v>
       </c>
       <c r="I34" s="0">
-        <v>0.60051693110000004</v>
+        <v>0.88563983406666669</v>
       </c>
       <c r="J34" s="0">
-        <v>0.75359193926666668</v>
+        <v>1.0024038527999999</v>
       </c>
       <c r="K34" s="0">
-        <v>0.50945236358000001</v>
+        <v>0.34231524932333335</v>
       </c>
       <c r="L34" s="0">
-        <v>-0.030633554536666691</v>
+        <v>-0.10494660499666665</v>
       </c>
       <c r="M34" s="0">
-        <v>0.49263281086666666</v>
+        <v>0.80232802263333336</v>
       </c>
       <c r="N34" s="0">
-        <v>0.21336996936666663</v>
+        <v>0.007469059499999986</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="0">
-        <v>0.59383144003166666</v>
+        <v>0.38976165965000004</v>
       </c>
       <c r="B35" s="0">
-        <v>0.80595487588333348</v>
+        <v>0.86641512923333319</v>
       </c>
       <c r="C35" s="0">
-        <v>0.92562593385500003</v>
+        <v>0.88408703932333332</v>
       </c>
       <c r="D35" s="0">
-        <v>0.54734830746666663</v>
+        <v>0.19997032281666668</v>
       </c>
       <c r="E35" s="0">
-        <v>0.92259745264666659</v>
+        <v>0.44602612487333337</v>
       </c>
       <c r="F35" s="0">
-        <v>0.98804607307333325</v>
+        <v>0.9047739664929999</v>
       </c>
       <c r="G35" s="0">
-        <v>0.93632061261333333</v>
+        <v>1.0570409516133332</v>
       </c>
       <c r="H35" s="0">
-        <v>0.43265263425400002</v>
+        <v>0.44821938664333333</v>
       </c>
       <c r="I35" s="0">
-        <v>0.82132592370000002</v>
+        <v>0.52492414330000003</v>
       </c>
       <c r="J35" s="0">
-        <v>1.1687552101500001</v>
+        <v>0.73198449674999999</v>
       </c>
       <c r="K35" s="0">
-        <v>0.57740260227666673</v>
+        <v>0.872774991035</v>
       </c>
       <c r="L35" s="0">
-        <v>0.82056256978333342</v>
+        <v>0.47008789784499999</v>
       </c>
       <c r="M35" s="0">
-        <v>1.0726485886066666</v>
+        <v>0.4093129386183334</v>
       </c>
       <c r="N35" s="0">
-        <v>1.02209349235</v>
+        <v>0.66443219755000005</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="0">
-        <v>-0.40865593479666668</v>
+        <v>-0.59191742235000011</v>
       </c>
       <c r="B36" s="0">
-        <v>-0.56058359586333328</v>
+        <v>-0.42563440268333336</v>
       </c>
       <c r="C36" s="0">
-        <v>-0.61814400972499994</v>
+        <v>-0.38669340585</v>
       </c>
       <c r="D36" s="0">
-        <v>0.074109053036666664</v>
+        <v>0.043613281129999987</v>
       </c>
       <c r="E36" s="0">
-        <v>0.25223609130000002</v>
+        <v>0.23612410184933333</v>
       </c>
       <c r="F36" s="0">
-        <v>-0.23039327217333333</v>
+        <v>-0.26576967823333336</v>
       </c>
       <c r="G36" s="0">
-        <v>-0.65792626986666669</v>
+        <v>-0.53255249351666678</v>
       </c>
       <c r="H36" s="0">
-        <v>-0.37052826410666673</v>
+        <v>-0.14112532831666669</v>
       </c>
       <c r="I36" s="0">
-        <v>0.29935290414999999</v>
+        <v>0.27099792215000001</v>
       </c>
       <c r="J36" s="0">
-        <v>0.2011951103166667</v>
+        <v>0.128090652423</v>
       </c>
       <c r="K36" s="0">
-        <v>-0.86040681417333342</v>
+        <v>-0.86243856381666661</v>
       </c>
       <c r="L36" s="0">
-        <v>-0.46026719728999999</v>
+        <v>-0.73290970948166678</v>
       </c>
       <c r="M36" s="0">
-        <v>-0.77237610363666664</v>
+        <v>-0.80998644841666667</v>
       </c>
       <c r="N36" s="0">
-        <v>-0.29972795735000002</v>
+        <v>-0.9987095444716666</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="0">
-        <v>-0.070619148536666676</v>
+        <v>-0.079296892250000028</v>
       </c>
       <c r="B37" s="0">
-        <v>-0.68016661533333345</v>
+        <v>-0.26554660297166666</v>
       </c>
       <c r="C37" s="0">
-        <v>-0.34575195219999999</v>
+        <v>0.050218083289999986</v>
       </c>
       <c r="D37" s="0">
-        <v>0.35988407740666667</v>
+        <v>0.48702313459166668</v>
       </c>
       <c r="E37" s="0">
-        <v>-0.067288556196666738</v>
+        <v>-0.27440186274000011</v>
       </c>
       <c r="F37" s="0">
-        <v>0.3255689164333333</v>
+        <v>0.51703115266666666</v>
       </c>
       <c r="G37" s="0">
-        <v>0.20679620311666666</v>
+        <v>0.52838426366500002</v>
       </c>
       <c r="H37" s="0">
-        <v>0.25019755205000005</v>
+        <v>0.24180795766666668</v>
       </c>
       <c r="I37" s="0">
-        <v>0.4062937858266667</v>
+        <v>0.57581442824666673</v>
       </c>
       <c r="J37" s="0">
-        <v>1.287249509</v>
+        <v>1.2240870836833335</v>
       </c>
       <c r="K37" s="0">
-        <v>-0.49891804395000006</v>
+        <v>0.026188398369999998</v>
       </c>
       <c r="L37" s="0">
-        <v>0.46356910585000005</v>
+        <v>0.7559955192333333</v>
       </c>
       <c r="M37" s="0">
-        <v>0.31770246670000002</v>
+        <v>0.29372968554000006</v>
       </c>
       <c r="N37" s="0">
-        <v>0.8530452363333334</v>
+        <v>0.95347662811666667</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="0">
-        <v>-0.15913592017333336</v>
+        <v>-0.30822447019999999</v>
       </c>
       <c r="B38" s="0">
-        <v>-0.08398930637333335</v>
+        <v>-0.36457650326666663</v>
       </c>
       <c r="C38" s="0">
-        <v>0.18160278867833332</v>
+        <v>-0.20133795677166669</v>
       </c>
       <c r="D38" s="0">
-        <v>-0.037488389253333324</v>
+        <v>0.25754077167166667</v>
       </c>
       <c r="E38" s="0">
-        <v>0.31655889979999996</v>
+        <v>0.42439166029999997</v>
       </c>
       <c r="F38" s="0">
-        <v>0.55723618441666667</v>
+        <v>-0.10352517669016668</v>
       </c>
       <c r="G38" s="0">
-        <v>0.16884788698333325</v>
+        <v>-0.10308745100333327</v>
       </c>
       <c r="H38" s="0">
-        <v>0.081608315016666655</v>
+        <v>0.092796559916666632</v>
       </c>
       <c r="I38" s="0">
-        <v>0.32753032879999999</v>
+        <v>-0.26948277283396666</v>
       </c>
       <c r="J38" s="0">
-        <v>-0.37202049243333335</v>
+        <v>0.57043169846666664</v>
       </c>
       <c r="K38" s="0">
-        <v>0.91225201571666659</v>
+        <v>0.11187272138833335</v>
       </c>
       <c r="L38" s="0">
-        <v>1.1150116451000001</v>
+        <v>-0.15370623980000003</v>
       </c>
       <c r="M38" s="0">
-        <v>0.82536847781666678</v>
+        <v>-0.29276354888999995</v>
       </c>
       <c r="N38" s="0">
-        <v>-0.21567746737499993</v>
+        <v>-1.01261724536</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="0">
-        <v>-0.1878164544</v>
+        <v>-0.015952305190000016</v>
       </c>
       <c r="B39" s="0">
-        <v>0.17831505836333333</v>
+        <v>0.094068659549999989</v>
       </c>
       <c r="C39" s="0">
-        <v>-0.2531178213166666</v>
+        <v>-0.083657220416666678</v>
       </c>
       <c r="D39" s="0">
-        <v>0.1650787276166667</v>
+        <v>0.77000307288333325</v>
       </c>
       <c r="E39" s="0">
-        <v>0.25078731315000002</v>
+        <v>0.75897578340000005</v>
       </c>
       <c r="F39" s="0">
-        <v>-0.089887950533333316</v>
+        <v>0.27884429630000007</v>
       </c>
       <c r="G39" s="0">
-        <v>-0.34783519136666663</v>
+        <v>-0.052927063216666626</v>
       </c>
       <c r="H39" s="0">
-        <v>0.44397896042333335</v>
+        <v>0.4322770917</v>
       </c>
       <c r="I39" s="0">
-        <v>-0.22805296045666668</v>
+        <v>0.22665833173166666</v>
       </c>
       <c r="J39" s="0">
-        <v>-1.0812447125158333</v>
+        <v>-0.52389736335000003</v>
       </c>
       <c r="K39" s="0">
-        <v>-0.85175095546666668</v>
+        <v>-0.31043187090000002</v>
       </c>
       <c r="L39" s="0">
-        <v>-0.34042718064999999</v>
+        <v>0.31903231523666664</v>
       </c>
       <c r="M39" s="0">
-        <v>0.045515918160833349</v>
+        <v>1.3113785312666666</v>
       </c>
       <c r="N39" s="0">
-        <v>-1.13737098482</v>
+        <v>0.016093494183333334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="0">
-        <v>0.26345145578466667</v>
+        <v>0.36264404996666666</v>
       </c>
       <c r="B40" s="0">
-        <v>0.81190763506666663</v>
+        <v>0.66912919101666668</v>
       </c>
       <c r="C40" s="0">
-        <v>1.4393504145666665</v>
+        <v>0.63446635352333347</v>
       </c>
       <c r="D40" s="0">
-        <v>0.13268350788333333</v>
+        <v>-0.64798807383333323</v>
       </c>
       <c r="E40" s="0">
-        <v>0.20407758314833332</v>
+        <v>-0.50418314438333334</v>
       </c>
       <c r="F40" s="0">
-        <v>1.0205872414033332</v>
+        <v>0.034367229983333358</v>
       </c>
       <c r="G40" s="0">
-        <v>1.0591929066233332</v>
+        <v>0.35491979816666674</v>
       </c>
       <c r="H40" s="0">
-        <v>0.60194440979300001</v>
+        <v>0.23503923550333333</v>
       </c>
       <c r="I40" s="0">
-        <v>0.32532670946666664</v>
+        <v>-0.095598167104999993</v>
       </c>
       <c r="J40" s="0">
-        <v>0.41603549251666672</v>
+        <v>-0.19290804825000007</v>
       </c>
       <c r="K40" s="0">
-        <v>1.6995168342000002</v>
+        <v>0.99262397550000014</v>
       </c>
       <c r="L40" s="0">
-        <v>1.7585171071666665</v>
+        <v>0.65631808275666659</v>
       </c>
       <c r="M40" s="0">
-        <v>1.3687033555166668</v>
+        <v>0.25619537553333338</v>
       </c>
       <c r="N40" s="0">
-        <v>1.2000266973833333</v>
+        <v>0.31100248281666676</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="0">
-        <v>0.21994844786333337</v>
+        <v>0.68179065840666675</v>
       </c>
       <c r="B41" s="0">
-        <v>0.72625849485000005</v>
+        <v>0.90013687649666663</v>
       </c>
       <c r="C41" s="0">
-        <v>0.93353310084999996</v>
+        <v>0.99629175808333326</v>
       </c>
       <c r="D41" s="0">
-        <v>0.31531377575333336</v>
+        <v>0.11951657348333333</v>
       </c>
       <c r="E41" s="0">
-        <v>0.0064143860233332739</v>
+        <v>-0.21315500751666666</v>
       </c>
       <c r="F41" s="0">
-        <v>0.53521975306666669</v>
+        <v>0.39620110896666672</v>
       </c>
       <c r="G41" s="0">
-        <v>0.83678305058333335</v>
+        <v>0.93065795703166665</v>
       </c>
       <c r="H41" s="0">
-        <v>0.42741526850833333</v>
+        <v>0.61998084655666663</v>
       </c>
       <c r="I41" s="0">
-        <v>0.58029169234833333</v>
+        <v>0.46674710580000001</v>
       </c>
       <c r="J41" s="0">
-        <v>-0.072771825643333329</v>
+        <v>1.0760125878266666</v>
       </c>
       <c r="K41" s="0">
-        <v>0.46778448990333332</v>
+        <v>0.99040308406666666</v>
       </c>
       <c r="L41" s="0">
-        <v>1.3247132932833332</v>
+        <v>0.80600059545000002</v>
       </c>
       <c r="M41" s="0">
-        <v>1.5421513906999997</v>
+        <v>1.0614589461999999</v>
       </c>
       <c r="N41" s="0">
-        <v>0.97880980386666661</v>
+        <v>1.2041940128366666</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="0">
-        <v>0.4238036458333333</v>
+        <v>0.21467334996666665</v>
       </c>
       <c r="B42" s="0">
-        <v>0.47669470311666673</v>
+        <v>0.22188899451166663</v>
       </c>
       <c r="C42" s="0">
-        <v>0.26215351173666668</v>
+        <v>-0.18298943671500004</v>
       </c>
       <c r="D42" s="0">
-        <v>0.56943785609999997</v>
+        <v>-0.0058921143500000328</v>
       </c>
       <c r="E42" s="0">
-        <v>0.20507262724833336</v>
+        <v>-0.39274086753333332</v>
       </c>
       <c r="F42" s="0">
-        <v>0.21069979931666666</v>
+        <v>-0.06772546829999998</v>
       </c>
       <c r="G42" s="0">
-        <v>-0.19007045644999992</v>
+        <v>-0.11940955946666666</v>
       </c>
       <c r="H42" s="0">
-        <v>0.14306515121500002</v>
+        <v>0.23519633063000001</v>
       </c>
       <c r="I42" s="0">
-        <v>0.32255126186666672</v>
+        <v>0.15447596626666668</v>
       </c>
       <c r="J42" s="0">
-        <v>1.2410383999200001</v>
+        <v>0.80037809185000008</v>
       </c>
       <c r="K42" s="0">
-        <v>0.64233261374999995</v>
+        <v>-0.060285529216666689</v>
       </c>
       <c r="L42" s="0">
-        <v>0.55642336500000011</v>
+        <v>0.7485319109666666</v>
       </c>
       <c r="M42" s="0">
-        <v>0.34961975974833337</v>
+        <v>-0.16452812328333333</v>
       </c>
       <c r="N42" s="0">
-        <v>1.3055272809500003</v>
+        <v>0.38171453296666669</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="0">
-        <v>-0.0020016807966666619</v>
+        <v>-0.20539374558333334</v>
       </c>
       <c r="B43" s="0">
-        <v>-0.5353846340366667</v>
+        <v>-0.56134917258566663</v>
       </c>
       <c r="C43" s="0">
-        <v>-0.28954925688333333</v>
+        <v>-0.15234341770000001</v>
       </c>
       <c r="D43" s="0">
-        <v>0.18407142473333332</v>
+        <v>0.18055077061666669</v>
       </c>
       <c r="E43" s="0">
-        <v>-0.1445511636366667</v>
+        <v>-0.12422792028333335</v>
       </c>
       <c r="F43" s="0">
-        <v>0.47541179688333335</v>
+        <v>0.43199212126666664</v>
       </c>
       <c r="G43" s="0">
-        <v>0.4754317273</v>
+        <v>0.28222207263333327</v>
       </c>
       <c r="H43" s="0">
-        <v>0.47900220890599998</v>
+        <v>0.2594102242752</v>
       </c>
       <c r="I43" s="0">
-        <v>0.054988675333333348</v>
+        <v>0.11651138188333343</v>
       </c>
       <c r="J43" s="0">
-        <v>0.73426733513999998</v>
+        <v>1.3117781174666665</v>
       </c>
       <c r="K43" s="0">
-        <v>-0.90141574533666657</v>
+        <v>-0.49987177821666662</v>
       </c>
       <c r="L43" s="0">
-        <v>-0.40932534383000002</v>
+        <v>-0.41120418219666666</v>
       </c>
       <c r="M43" s="0">
-        <v>-0.51637550713333336</v>
+        <v>-0.82183717733999995</v>
       </c>
       <c r="N43" s="0">
-        <v>0.16818944775000005</v>
+        <v>-0.21255795461666671</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="0">
-        <v>0.057585518399999994</v>
+        <v>-0.15394203779233334</v>
       </c>
       <c r="B44" s="0">
-        <v>0.25654638021666665</v>
+        <v>0.245653184425</v>
       </c>
       <c r="C44" s="0">
-        <v>0.177829661321</v>
+        <v>0.41404490253333337</v>
       </c>
       <c r="D44" s="0">
-        <v>-0.49489928560604002</v>
+        <v>-0.15111926351999999</v>
       </c>
       <c r="E44" s="0">
-        <v>-0.32787051829000002</v>
+        <v>-0.11432460240449999</v>
       </c>
       <c r="F44" s="0">
-        <v>0.25031500816666669</v>
+        <v>0.46271834861666672</v>
       </c>
       <c r="G44" s="0">
-        <v>0.51026380868333332</v>
+        <v>0.8432669500833333</v>
       </c>
       <c r="H44" s="0">
-        <v>0.34698507242666665</v>
+        <v>0.37598362513333333</v>
       </c>
       <c r="I44" s="0">
-        <v>-0.41689238419666674</v>
+        <v>0.13797137045999999</v>
       </c>
       <c r="J44" s="0">
-        <v>0.95655749141666668</v>
+        <v>0.83987219717666672</v>
       </c>
       <c r="K44" s="0">
-        <v>0.85930728733666661</v>
+        <v>0.31909237840399995</v>
       </c>
       <c r="L44" s="0">
-        <v>0.13504128204999999</v>
+        <v>0.24012425828566666</v>
       </c>
       <c r="M44" s="0">
-        <v>0.27061299969999997</v>
+        <v>0.88048015582333328</v>
       </c>
       <c r="N44" s="0">
-        <v>-0.10833647430000004</v>
+        <v>-0.35408785891666672</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="0">
-        <v>0.48717264105000002</v>
+        <v>0.18401484926666667</v>
       </c>
       <c r="B45" s="0">
-        <v>0.53764739918333326</v>
+        <v>0.71069887840000001</v>
       </c>
       <c r="C45" s="0">
-        <v>0.56628251403333341</v>
+        <v>1.0865463314733332</v>
       </c>
       <c r="D45" s="0">
-        <v>0.53238574875</v>
+        <v>0.51840498217666653</v>
       </c>
       <c r="E45" s="0">
-        <v>0.4625650580166667</v>
+        <v>0.11435656117500009</v>
       </c>
       <c r="F45" s="0">
-        <v>0.52718391714000001</v>
+        <v>0.31817600443999999</v>
       </c>
       <c r="G45" s="0">
-        <v>0.92482907464999997</v>
+        <v>0.77842012738666677</v>
       </c>
       <c r="H45" s="0">
-        <v>0.63267459716700003</v>
+        <v>-0.028052262959333343</v>
       </c>
       <c r="I45" s="0">
-        <v>-0.20393814234533333</v>
+        <v>-0.18158266191</v>
       </c>
       <c r="J45" s="0">
-        <v>0.018425255450000011</v>
+        <v>-0.04973520569333334</v>
       </c>
       <c r="K45" s="0">
-        <v>0.65482966551666666</v>
+        <v>0.92753450578999996</v>
       </c>
       <c r="L45" s="0">
-        <v>0.45195829706666657</v>
+        <v>0.74105106708333335</v>
       </c>
       <c r="M45" s="0">
-        <v>0.078069193816666632</v>
+        <v>0.64549219276666658</v>
       </c>
       <c r="N45" s="0">
-        <v>0.71393067903333329</v>
+        <v>0.74516944586666667</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="0">
-        <v>-0.69264855759999999</v>
+        <v>-0.26689443811499997</v>
       </c>
       <c r="B46" s="0">
-        <v>-1.0219271517499999</v>
+        <v>-0.54488971445000001</v>
       </c>
       <c r="C46" s="0">
-        <v>-0.23440039239499993</v>
+        <v>0.12086491939999994</v>
       </c>
       <c r="D46" s="0">
-        <v>-0.55489191695499995</v>
+        <v>-0.22940440835000009</v>
       </c>
       <c r="E46" s="0">
-        <v>-0.56814573690000003</v>
+        <v>-0.17579611114999999</v>
       </c>
       <c r="F46" s="0">
-        <v>-0.77735144702999992</v>
+        <v>-0.66041109345000004</v>
       </c>
       <c r="G46" s="0">
-        <v>-0.49627078985</v>
+        <v>-0.29548238000000004</v>
       </c>
       <c r="H46" s="0">
-        <v>-0.51200369765000009</v>
+        <v>-0.36232935654999998</v>
       </c>
       <c r="I46" s="0">
-        <v>-0.29266084190500008</v>
+        <v>-0.28072121915000003</v>
       </c>
       <c r="J46" s="0">
-        <v>-0.56087502515000009</v>
+        <v>-0.27172762644999993</v>
       </c>
       <c r="K46" s="0">
-        <v>-0.42244231763999995</v>
+        <v>-0.085885630749999969</v>
       </c>
       <c r="L46" s="0">
-        <v>-0.044846618245000025</v>
+        <v>0.11025550239999998</v>
       </c>
       <c r="M46" s="0">
-        <v>-0.042610620190000004</v>
+        <v>0.2682410348</v>
       </c>
       <c r="N46" s="0">
-        <v>0.45680033284999999</v>
+        <v>0.38784159304999993</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="0">
-        <v>-0.38557110416666673</v>
+        <v>-0.14381807821000001</v>
       </c>
       <c r="B47" s="0">
-        <v>-0.86011967276666668</v>
+        <v>-0.18104740728333327</v>
       </c>
       <c r="C47" s="0">
-        <v>-1.0481915680033334</v>
+        <v>-0.74068978794999996</v>
       </c>
       <c r="D47" s="0">
-        <v>-0.33763355101333337</v>
+        <v>-0.21944982681266667</v>
       </c>
       <c r="E47" s="0">
-        <v>0.077630406453999989</v>
+        <v>-0.073709379796666641</v>
       </c>
       <c r="F47" s="0">
-        <v>0.24678721636666667</v>
+        <v>-0.60236857593333326</v>
       </c>
       <c r="G47" s="0">
-        <v>-0.83214354253999989</v>
+        <v>-0.75543666661666664</v>
       </c>
       <c r="H47" s="0">
-        <v>-0.1061900688666667</v>
+        <v>-0.16596575768666669</v>
       </c>
       <c r="I47" s="0">
-        <v>-0.38915819539999996</v>
+        <v>-0.26959552923333341</v>
       </c>
       <c r="J47" s="0">
-        <v>-0.77906089102666665</v>
+        <v>-0.71806960630000005</v>
       </c>
       <c r="K47" s="0">
-        <v>-0.58968776627666664</v>
+        <v>-0.68031695271666681</v>
       </c>
       <c r="L47" s="0">
-        <v>-0.96467311124333321</v>
+        <v>-0.61568571700000008</v>
       </c>
       <c r="M47" s="0">
-        <v>-0.43979496152000008</v>
+        <v>0.32735701903333336</v>
       </c>
       <c r="N47" s="0">
-        <v>-0.7255019596333333</v>
+        <v>-0.058076726896999942</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="0">
-        <v>-0.025386693474999972</v>
+        <v>0.312435472775</v>
       </c>
       <c r="B48" s="0">
-        <v>0.21422488909999998</v>
+        <v>0.54161556929999999</v>
       </c>
       <c r="C48" s="0">
-        <v>0.25919914075</v>
+        <v>0.48000072199999999</v>
       </c>
       <c r="D48" s="0">
-        <v>-0.16555963525</v>
+        <v>0.050000955547499976</v>
       </c>
       <c r="E48" s="0">
-        <v>0.26740580480000004</v>
+        <v>0.43351274662000006</v>
       </c>
       <c r="F48" s="0">
-        <v>0.28387500845000002</v>
+        <v>0.28724576245</v>
       </c>
       <c r="G48" s="0">
-        <v>0.67899192535000008</v>
+        <v>0.69635890899999997</v>
       </c>
       <c r="H48" s="0">
-        <v>0.37356549428499997</v>
+        <v>0.64256019208999993</v>
       </c>
       <c r="I48" s="0">
-        <v>-0.060061900825000014</v>
+        <v>0.06466816265</v>
       </c>
       <c r="J48" s="0">
-        <v>1.0284598738899999</v>
+        <v>1.5581649125500001</v>
       </c>
       <c r="K48" s="0">
-        <v>0.63178215390000003</v>
+        <v>0.82639124725000002</v>
       </c>
       <c r="L48" s="0">
-        <v>-0.27563274690000006</v>
+        <v>-0.093605462149999985</v>
       </c>
       <c r="M48" s="0">
-        <v>-0.140989477945</v>
+        <v>0.17822328260000006</v>
       </c>
       <c r="N48" s="0">
-        <v>0.69729834655</v>
+        <v>1.1797739003000001</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="0">
-        <v>-0.13457954784999998</v>
+        <v>0.74734466240499997</v>
       </c>
       <c r="B49" s="0">
-        <v>0.35265671519999997</v>
+        <v>1.2341783366499999</v>
       </c>
       <c r="C49" s="0">
-        <v>0.26955802475000012</v>
+        <v>1.0675437705999999</v>
       </c>
       <c r="D49" s="0">
-        <v>-0.39060353276500004</v>
+        <v>-0.028411920224999943</v>
       </c>
       <c r="E49" s="0">
-        <v>-0.67824424360000002</v>
+        <v>-0.25606632201499996</v>
       </c>
       <c r="F49" s="0">
-        <v>-0.45506367442499995</v>
+        <v>-0.056371029010000018</v>
       </c>
       <c r="G49" s="0">
-        <v>-0.76082120606999992</v>
+        <v>-0.15997358736049999</v>
       </c>
       <c r="H49" s="0">
-        <v>-0.45490196899999996</v>
+        <v>-0.13518493195</v>
       </c>
       <c r="I49" s="0">
-        <v>-0.11094509685999998</v>
+        <v>0.34696181728499997</v>
       </c>
       <c r="J49" s="0">
-        <v>0.42418952095000001</v>
+        <v>0.39087414624999994</v>
       </c>
       <c r="K49" s="0">
-        <v>-0.36625782120000006</v>
+        <v>1.3647107410000001</v>
       </c>
       <c r="L49" s="0">
-        <v>-0.099661244950000061</v>
+        <v>0.78117012369999994</v>
       </c>
       <c r="M49" s="0">
-        <v>0.37380717500000005</v>
+        <v>0.91885792170000002</v>
       </c>
       <c r="N49" s="0">
-        <v>-0.046560940450000032</v>
+        <v>0.99794760690000006</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="0">
-        <v>0.080009734599999979</v>
+        <v>0.1547678319583333</v>
       </c>
       <c r="B50" s="0">
-        <v>0.27920733319500002</v>
+        <v>0.15408608190966669</v>
       </c>
       <c r="C50" s="0">
-        <v>0.10086491374999998</v>
+        <v>-0.14162731094333336</v>
       </c>
       <c r="D50" s="0">
-        <v>0.76294263774000004</v>
+        <v>0.36181857151666669</v>
       </c>
       <c r="E50" s="0">
-        <v>0.19767537038599997</v>
+        <v>-0.12576519458333332</v>
       </c>
       <c r="F50" s="0">
-        <v>0.86149860439999992</v>
+        <v>0.16136178383333333</v>
       </c>
       <c r="G50" s="0">
-        <v>1.0002251770333332</v>
+        <v>0.49447943797666666</v>
       </c>
       <c r="H50" s="0">
-        <v>0.9879302050633334</v>
+        <v>0.36916307965</v>
       </c>
       <c r="I50" s="0">
-        <v>0.5058831743833333</v>
+        <v>0.34368686159166661</v>
       </c>
       <c r="J50" s="0">
-        <v>1.2881807822283333</v>
+        <v>0.33780602268333332</v>
       </c>
       <c r="K50" s="0">
-        <v>0.11880169658999999</v>
+        <v>-0.37864099104333337</v>
       </c>
       <c r="L50" s="0">
-        <v>0.32916519597999994</v>
+        <v>-0.13191306091499999</v>
       </c>
       <c r="M50" s="0">
-        <v>0.35851487403333326</v>
+        <v>-0.20642586136666666</v>
       </c>
       <c r="N50" s="0">
-        <v>0.79270008400000003</v>
+        <v>-0.13872520213666667</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="0">
-        <v>-0.21500082288000005</v>
+        <v>-0.40399291024999995</v>
       </c>
       <c r="B51" s="0">
-        <v>-0.88358378950000005</v>
+        <v>-1.1309873159700001</v>
       </c>
       <c r="C51" s="0">
-        <v>-1.3483342714000002</v>
+        <v>-1.4385633276500003</v>
       </c>
       <c r="D51" s="0">
-        <v>-1.1055180717500002</v>
+        <v>-1.2130543523000001</v>
       </c>
       <c r="E51" s="0">
-        <v>-1.8871303982250001</v>
+        <v>-1.8274642631</v>
       </c>
       <c r="F51" s="0">
-        <v>-1.0383125115</v>
+        <v>-0.76997308745000004</v>
       </c>
       <c r="G51" s="0">
-        <v>-0.092156986900000043</v>
+        <v>-0.20187996105000006</v>
       </c>
       <c r="H51" s="0">
-        <v>0.031304938050000009</v>
+        <v>-0.19399287195000003</v>
       </c>
       <c r="I51" s="0">
-        <v>-1.24925447095</v>
+        <v>-0.99824027179999997</v>
       </c>
       <c r="J51" s="0">
-        <v>0.98080697396500005</v>
+        <v>0.91696570410000011</v>
       </c>
       <c r="K51" s="0">
-        <v>-1.2616288503574999</v>
+        <v>-1.4894017379500002</v>
       </c>
       <c r="L51" s="0">
-        <v>-0.98130858285</v>
+        <v>-1.2962486646</v>
       </c>
       <c r="M51" s="0">
-        <v>-1.67203114165</v>
+        <v>-1.4480606497999999</v>
       </c>
       <c r="N51" s="0">
-        <v>-1.409701018</v>
+        <v>-1.8229347162500003</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="0">
-        <v>-0.12986890785000005</v>
+        <v>-0.3070672176</v>
       </c>
       <c r="B52" s="0">
-        <v>-0.15477882268000009</v>
+        <v>-0.16743448005500006</v>
       </c>
       <c r="C52" s="0">
-        <v>0.13517267830000002</v>
+        <v>0.28639530935000002</v>
       </c>
       <c r="D52" s="0">
-        <v>-0.04227533120000003</v>
+        <v>0.11390298285000006</v>
       </c>
       <c r="E52" s="0">
-        <v>0.15338676125000006</v>
+        <v>0.086239355045000021</v>
       </c>
       <c r="F52" s="0">
-        <v>-0.029587105759999954</v>
+        <v>0.17319648134999993</v>
       </c>
       <c r="G52" s="0">
-        <v>0.066449188100000001</v>
+        <v>-0.17734284075000001</v>
       </c>
       <c r="H52" s="0">
-        <v>-0.25962529547000002</v>
+        <v>0.17968162034999999</v>
       </c>
       <c r="I52" s="0">
-        <v>0.39709542950500004</v>
+        <v>0.21792126275500004</v>
       </c>
       <c r="J52" s="0">
-        <v>0.27942818164</v>
+        <v>0.083064706719999992</v>
       </c>
       <c r="K52" s="0">
-        <v>0.24572864082499998</v>
+        <v>0.14325645308000001</v>
       </c>
       <c r="L52" s="0">
-        <v>-0.17970796755000007</v>
+        <v>-0.32314184099999999</v>
       </c>
       <c r="M52" s="0">
-        <v>-0.24617648254499999</v>
+        <v>-0.75208651944999994</v>
       </c>
       <c r="N52" s="0">
-        <v>0.7683881774500001</v>
+        <v>-0.041033311605000011</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="0">
-        <v>-1.0999895897499998</v>
+        <v>-0.9890844929</v>
       </c>
       <c r="B53" s="0">
-        <v>-0.65214364325000007</v>
+        <v>-0.64983048141599997</v>
       </c>
       <c r="C53" s="0">
-        <v>-0.23456619340500001</v>
+        <v>-0.35770830791500002</v>
       </c>
       <c r="D53" s="0">
-        <v>0.1508931556</v>
+        <v>0.24515135911500002</v>
       </c>
       <c r="E53" s="0">
-        <v>0.71116359490000003</v>
+        <v>0.56471008695000002</v>
       </c>
       <c r="F53" s="0">
-        <v>0.5637923802</v>
+        <v>0.44038670785</v>
       </c>
       <c r="G53" s="0">
-        <v>0.16576255338999998</v>
+        <v>0.11992243570050004</v>
       </c>
       <c r="H53" s="0">
-        <v>0.23973356476500002</v>
+        <v>0.12742385479499999</v>
       </c>
       <c r="I53" s="0">
-        <v>-0.1280316541</v>
+        <v>-0.13914139639999998</v>
       </c>
       <c r="J53" s="0">
-        <v>0.31271255100000001</v>
+        <v>0.53612783740000003</v>
       </c>
       <c r="K53" s="0">
-        <v>1.33525964215</v>
+        <v>1.1256037351500001</v>
       </c>
       <c r="L53" s="0">
-        <v>0.042124165749999998</v>
+        <v>0.26828021859000001</v>
       </c>
       <c r="M53" s="0">
-        <v>-0.15906122195000005</v>
+        <v>-0.034885794349999943</v>
       </c>
       <c r="N53" s="0">
-        <v>-0.67883282892000008</v>
+        <v>-0.73703056238999998</v>
       </c>
     </row>
   </sheetData>

--- a/code/h2_data_right.xlsx
+++ b/code/h2_data_right.xlsx
@@ -13,7 +13,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="602" uniqueCount="602">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -1885,46 +2011,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>588</v>
+        <v>630</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>589</v>
+        <v>631</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>590</v>
+        <v>632</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>591</v>
+        <v>633</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>592</v>
+        <v>634</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>593</v>
+        <v>635</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>594</v>
+        <v>636</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>595</v>
+        <v>637</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>596</v>
+        <v>638</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>597</v>
+        <v>639</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>598</v>
+        <v>640</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>599</v>
+        <v>641</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>600</v>
+        <v>642</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>601</v>
+        <v>643</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_right.xlsx
+++ b/code/h2_data_right.xlsx
@@ -13,7 +13,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="686">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -2011,46 +2137,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>630</v>
+        <v>672</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>631</v>
+        <v>673</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>632</v>
+        <v>674</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>633</v>
+        <v>675</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>634</v>
+        <v>676</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>635</v>
+        <v>677</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>636</v>
+        <v>678</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>637</v>
+        <v>679</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>638</v>
+        <v>680</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>639</v>
+        <v>681</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>640</v>
+        <v>682</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>641</v>
+        <v>683</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>642</v>
+        <v>684</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>643</v>
+        <v>685</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_right.xlsx
+++ b/code/h2_data_right.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -457,46 +499,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>114</v>
+        <v>128</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>115</v>
+        <v>129</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>116</v>
+        <v>130</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>117</v>
+        <v>131</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>122</v>
+        <v>136</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_right.xlsx
+++ b/code/h2_data_right.xlsx
@@ -13,7 +13,217 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -499,46 +709,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>126</v>
+        <v>196</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>127</v>
+        <v>197</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>129</v>
+        <v>199</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>130</v>
+        <v>200</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>131</v>
+        <v>201</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>132</v>
+        <v>202</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>133</v>
+        <v>203</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>134</v>
+        <v>204</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>135</v>
+        <v>205</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>136</v>
+        <v>206</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>137</v>
+        <v>207</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>138</v>
+        <v>208</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>139</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">

--- a/code/h2_data_right.xlsx
+++ b/code/h2_data_right.xlsx
@@ -13,7 +13,49 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="224">
+  <si>
+    <t>IV_2&gt;1</t>
+  </si>
+  <si>
+    <t>V_2&gt;1</t>
+  </si>
+  <si>
+    <t>VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_I_2&gt;1</t>
+  </si>
+  <si>
+    <t>Crus_II_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>IX_2&gt;1</t>
+  </si>
+  <si>
+    <t>X_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VI_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIa_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_VIIIb_2&gt;1</t>
+  </si>
+  <si>
+    <t>Vermis_IX_2&gt;1</t>
+  </si>
   <si>
     <t>IV_2&gt;1</t>
   </si>
@@ -709,46 +751,46 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>197</v>
+        <v>211</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>198</v>
+        <v>212</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>199</v>
+        <v>213</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>201</v>
+        <v>215</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>202</v>
+        <v>216</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>203</v>
+        <v>217</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>204</v>
+        <v>218</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>205</v>
+        <v>219</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>206</v>
+        <v>220</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>207</v>
+        <v>221</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>209</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
